--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084684.008278372</v>
+        <v>2083932.073535545</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8988589.106576409</v>
+        <v>8988589.106576407</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.8579664594052</v>
       </c>
       <c r="C11" t="n">
-        <v>275.8692834170869</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>266.8505874616149</v>
+        <v>266.850587461615</v>
       </c>
       <c r="E11" t="n">
-        <v>136.3022586650235</v>
+        <v>107.5262285657631</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>307.7645411194977</v>
       </c>
       <c r="G11" t="n">
-        <v>309.1465123404705</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6019569075395</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.59002402103098</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.5488749379182</v>
+        <v>70.54887493791827</v>
       </c>
       <c r="T11" t="n">
-        <v>117.4569179417066</v>
+        <v>117.4569179417067</v>
       </c>
       <c r="U11" t="n">
         <v>150.0472415255962</v>
       </c>
       <c r="V11" t="n">
-        <v>231.3643436995843</v>
+        <v>231.3643436995844</v>
       </c>
       <c r="W11" t="n">
-        <v>256.6644431775412</v>
+        <v>256.6644431775413</v>
       </c>
       <c r="X11" t="n">
-        <v>275.9647014102878</v>
+        <v>275.9647014102879</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>287.3612992064866</v>
       </c>
     </row>
     <row r="12">
@@ -1452,10 +1452,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>41.69897555424702</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>107.3491612821242</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1467,7 +1467,7 @@
         <v>96.0896923100554</v>
       </c>
       <c r="I12" t="n">
-        <v>57.54270652386903</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.87242863802512</v>
+        <v>40.87242863802513</v>
       </c>
       <c r="S12" t="n">
         <v>145.7925588210648</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.47467733410228</v>
+        <v>79.47467733410234</v>
       </c>
       <c r="C13" t="n">
-        <v>65.67467217950276</v>
+        <v>65.67467217950282</v>
       </c>
       <c r="D13" t="n">
-        <v>49.29603657708115</v>
+        <v>49.29603657708121</v>
       </c>
       <c r="E13" t="n">
-        <v>48.2437864328606</v>
+        <v>48.24378643286066</v>
       </c>
       <c r="F13" t="n">
-        <v>48.71071076104691</v>
+        <v>48.71071076104697</v>
       </c>
       <c r="G13" t="n">
-        <v>64.73812077240532</v>
+        <v>64.73812077240538</v>
       </c>
       <c r="H13" t="n">
-        <v>53.33512410172463</v>
+        <v>53.33512410172469</v>
       </c>
       <c r="I13" t="n">
-        <v>33.07911006586885</v>
+        <v>33.07911006586891</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66224642098906</v>
+        <v>34.66224642098912</v>
       </c>
       <c r="S13" t="n">
         <v>105.0178898064635</v>
       </c>
       <c r="T13" t="n">
-        <v>127.5454116827257</v>
+        <v>127.5454116827258</v>
       </c>
       <c r="U13" t="n">
         <v>182.0597107590852</v>
@@ -1588,13 +1588,13 @@
         <v>155.8828137337279</v>
       </c>
       <c r="W13" t="n">
-        <v>181.0496998043411</v>
+        <v>181.0496998043412</v>
       </c>
       <c r="X13" t="n">
-        <v>126.6948018001442</v>
+        <v>126.6948018001443</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.5696695562119</v>
+        <v>117.569669556212</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>287.8579664594052</v>
       </c>
       <c r="C14" t="n">
-        <v>275.8692834170869</v>
+        <v>275.869283417087</v>
       </c>
       <c r="D14" t="n">
-        <v>266.8505874616149</v>
+        <v>266.850587461615</v>
       </c>
       <c r="E14" t="n">
-        <v>288.5927250315204</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>307.7645411194977</v>
       </c>
       <c r="G14" t="n">
-        <v>309.1465123404705</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6019569075395</v>
+        <v>221.6019569075396</v>
       </c>
       <c r="I14" t="n">
-        <v>47.590024021031</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.54887493791821</v>
+        <v>70.54887493791827</v>
       </c>
       <c r="T14" t="n">
-        <v>117.4569179417066</v>
+        <v>117.4569179417067</v>
       </c>
       <c r="U14" t="n">
         <v>150.0472415255962</v>
       </c>
       <c r="V14" t="n">
-        <v>231.3643436995843</v>
+        <v>231.3643436995844</v>
       </c>
       <c r="W14" t="n">
-        <v>256.6644431775412</v>
+        <v>154.0807306251641</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.9647014102879</v>
       </c>
       <c r="Y14" t="n">
-        <v>123.6742350437909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,10 +1698,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1462452504875</v>
+        <v>31.39497016504518</v>
       </c>
       <c r="H15" t="n">
-        <v>0.338417224612279</v>
+        <v>96.0896923100554</v>
       </c>
       <c r="I15" t="n">
         <v>57.54270652386903</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.47467733410228</v>
+        <v>79.47467733410234</v>
       </c>
       <c r="C16" t="n">
-        <v>65.67467217950276</v>
+        <v>65.67467217950282</v>
       </c>
       <c r="D16" t="n">
-        <v>49.29603657708115</v>
+        <v>49.29603657708121</v>
       </c>
       <c r="E16" t="n">
-        <v>48.2437864328606</v>
+        <v>48.24378643286066</v>
       </c>
       <c r="F16" t="n">
-        <v>48.71071076104691</v>
+        <v>48.71071076104697</v>
       </c>
       <c r="G16" t="n">
-        <v>64.73812077240532</v>
+        <v>64.73812077240538</v>
       </c>
       <c r="H16" t="n">
-        <v>53.33512410172463</v>
+        <v>53.33512410172469</v>
       </c>
       <c r="I16" t="n">
-        <v>33.07911006586885</v>
+        <v>33.07911006586891</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66224642098907</v>
+        <v>34.66224642098913</v>
       </c>
       <c r="S16" t="n">
         <v>105.0178898064635</v>
       </c>
       <c r="T16" t="n">
-        <v>127.5454116827257</v>
+        <v>127.5454116827258</v>
       </c>
       <c r="U16" t="n">
-        <v>182.0597107590852</v>
+        <v>182.0597107590853</v>
       </c>
       <c r="V16" t="n">
         <v>155.8828137337279</v>
       </c>
       <c r="W16" t="n">
-        <v>181.0496998043411</v>
+        <v>181.0496998043412</v>
       </c>
       <c r="X16" t="n">
-        <v>126.6948018001442</v>
+        <v>126.6948018001443</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.5696695562119</v>
+        <v>117.569669556212</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>237.2156661815794</v>
       </c>
       <c r="G17" t="n">
-        <v>238.5976374025523</v>
+        <v>238.5976374025522</v>
       </c>
       <c r="H17" t="n">
-        <v>151.0530819696214</v>
+        <v>151.0530819696231</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>46.90804300378841</v>
+        <v>46.90804300378842</v>
       </c>
       <c r="U17" t="n">
         <v>79.49836658767799</v>
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>37.59558498418212</v>
       </c>
       <c r="G18" t="n">
         <v>127.1462452504875</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>40.87242863802513</v>
       </c>
       <c r="S18" t="n">
-        <v>90.91371237364706</v>
+        <v>145.7925588210648</v>
       </c>
       <c r="T18" t="n">
         <v>185.6093178017383</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.46901486854527</v>
+        <v>80.35736975859517</v>
       </c>
       <c r="T19" t="n">
-        <v>102.8848916348575</v>
+        <v>56.99653674480755</v>
       </c>
       <c r="U19" t="n">
         <v>284.3048484225189</v>
@@ -2087,7 +2087,7 @@
         <v>196.3017125236967</v>
       </c>
       <c r="E20" t="n">
-        <v>218.0438500936022</v>
+        <v>218.0438500936023</v>
       </c>
       <c r="F20" t="n">
         <v>237.2156661815794</v>
@@ -2096,7 +2096,7 @@
         <v>238.5976374025522</v>
       </c>
       <c r="H20" t="n">
-        <v>151.0530819696213</v>
+        <v>151.0530819696216</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.90804300378839</v>
+        <v>46.90804300378842</v>
       </c>
       <c r="U20" t="n">
-        <v>79.49836658767795</v>
+        <v>79.49836658767798</v>
       </c>
       <c r="V20" t="n">
         <v>160.8154687616661</v>
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>99.24168207811674</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2178,7 +2178,7 @@
         <v>96.0896923100554</v>
       </c>
       <c r="I21" t="n">
-        <v>57.54270652386903</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>40.87242863802513</v>
       </c>
       <c r="S21" t="n">
-        <v>50.04128373562216</v>
+        <v>145.7925588210648</v>
       </c>
       <c r="T21" t="n">
         <v>185.6093178017383</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.925802396184054</v>
+        <v>8.925802396184082</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>136.9073840844228</v>
       </c>
       <c r="S22" t="n">
-        <v>207.2630274698972</v>
+        <v>116.2439982755243</v>
       </c>
       <c r="T22" t="n">
-        <v>102.8848916348577</v>
+        <v>56.99653674480755</v>
       </c>
       <c r="U22" t="n">
         <v>111.510835821167</v>
       </c>
       <c r="V22" t="n">
-        <v>85.33393879580964</v>
+        <v>85.33393879580967</v>
       </c>
       <c r="W22" t="n">
         <v>110.5008248664229</v>
       </c>
       <c r="X22" t="n">
-        <v>56.14592686222602</v>
+        <v>56.14592686222605</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.02079461829371</v>
+        <v>47.02079461829373</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>196.3017125236967</v>
       </c>
       <c r="E23" t="n">
-        <v>218.0438500936022</v>
+        <v>218.0438500936023</v>
       </c>
       <c r="F23" t="n">
         <v>237.2156661815794</v>
@@ -2333,7 +2333,7 @@
         <v>238.5976374025522</v>
       </c>
       <c r="H23" t="n">
-        <v>151.0530819696213</v>
+        <v>151.0530819696214</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>46.90804300378838</v>
+        <v>46.90804300378842</v>
       </c>
       <c r="U23" t="n">
-        <v>79.49836658767796</v>
+        <v>79.49836658767799</v>
       </c>
       <c r="V23" t="n">
         <v>160.8154687616661</v>
@@ -2406,13 +2406,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>78.46801362220573</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>127.1462452504875</v>
       </c>
       <c r="H24" t="n">
-        <v>96.0896923100554</v>
+        <v>0.3384172246131513</v>
       </c>
       <c r="I24" t="n">
         <v>57.54270652386903</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.87242863802513</v>
       </c>
       <c r="S24" t="n">
         <v>145.7925588210648</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.925802396184054</v>
+        <v>8.925802396184082</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.9073840844228</v>
       </c>
       <c r="S25" t="n">
-        <v>207.2630274698972</v>
+        <v>34.46901486854527</v>
       </c>
       <c r="T25" t="n">
-        <v>102.8848916348577</v>
+        <v>138.7715201517866</v>
       </c>
       <c r="U25" t="n">
         <v>111.510835821167</v>
       </c>
       <c r="V25" t="n">
-        <v>85.33393879580964</v>
+        <v>85.33393879580967</v>
       </c>
       <c r="W25" t="n">
         <v>110.5008248664229</v>
       </c>
       <c r="X25" t="n">
-        <v>56.14592686222602</v>
+        <v>56.14592686222605</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.02079461829371</v>
+        <v>47.02079461829373</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>287.8579664594052</v>
       </c>
       <c r="C26" t="n">
-        <v>275.869283417087</v>
+        <v>275.8692834170869</v>
       </c>
       <c r="D26" t="n">
-        <v>266.850587461615</v>
+        <v>266.8505874616149</v>
       </c>
       <c r="E26" t="n">
         <v>288.5927250315204</v>
@@ -2570,10 +2570,10 @@
         <v>309.1465123404705</v>
       </c>
       <c r="H26" t="n">
-        <v>221.6019569075396</v>
+        <v>221.6019569075412</v>
       </c>
       <c r="I26" t="n">
-        <v>47.59002402103104</v>
+        <v>47.590024021031</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.54887493791824</v>
+        <v>70.54887493791821</v>
       </c>
       <c r="T26" t="n">
         <v>117.4569179417066</v>
@@ -2621,7 +2621,7 @@
         <v>275.9647014102878</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.3612992064885</v>
+        <v>287.3612992064866</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>127.1462452504875</v>
       </c>
       <c r="H27" t="n">
-        <v>96.08969231005541</v>
+        <v>96.0896923100554</v>
       </c>
       <c r="I27" t="n">
-        <v>57.54270652386904</v>
+        <v>57.54270652386903</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.87242863802516</v>
+        <v>40.87242863802513</v>
       </c>
       <c r="S27" t="n">
         <v>145.7925588210648</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.4746773341023</v>
+        <v>79.47467733410228</v>
       </c>
       <c r="C28" t="n">
-        <v>65.67467217950278</v>
+        <v>65.67467217950276</v>
       </c>
       <c r="D28" t="n">
-        <v>49.29603657708117</v>
+        <v>49.29603657708115</v>
       </c>
       <c r="E28" t="n">
-        <v>48.24378643286062</v>
+        <v>48.2437864328606</v>
       </c>
       <c r="F28" t="n">
-        <v>48.71071076104693</v>
+        <v>48.71071076104691</v>
       </c>
       <c r="G28" t="n">
-        <v>64.73812077240532</v>
+        <v>64.73812077240531</v>
       </c>
       <c r="H28" t="n">
-        <v>53.33512410172465</v>
+        <v>53.33512410172463</v>
       </c>
       <c r="I28" t="n">
-        <v>33.07911006586887</v>
+        <v>33.07911006586885</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66224642098909</v>
+        <v>34.66224642098907</v>
       </c>
       <c r="S28" t="n">
         <v>105.0178898064635</v>
       </c>
       <c r="T28" t="n">
-        <v>127.5454116827258</v>
+        <v>127.5454116827257</v>
       </c>
       <c r="U28" t="n">
         <v>182.0597107590852</v>
@@ -2776,7 +2776,7 @@
         <v>181.0496998043411</v>
       </c>
       <c r="X28" t="n">
-        <v>126.6948018001443</v>
+        <v>126.6948018001442</v>
       </c>
       <c r="Y28" t="n">
         <v>117.5696695562119</v>
@@ -2792,25 +2792,25 @@
         <v>287.8579664594052</v>
       </c>
       <c r="C29" t="n">
-        <v>275.869283417087</v>
+        <v>275.8692834170869</v>
       </c>
       <c r="D29" t="n">
-        <v>266.850587461615</v>
+        <v>266.8505874616149</v>
       </c>
       <c r="E29" t="n">
-        <v>288.5927250315205</v>
+        <v>288.5927250315204</v>
       </c>
       <c r="F29" t="n">
-        <v>307.7645411194977</v>
+        <v>307.7645411194976</v>
       </c>
       <c r="G29" t="n">
         <v>309.1465123404705</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6019569075396</v>
+        <v>221.6019569075395</v>
       </c>
       <c r="I29" t="n">
-        <v>47.59002402103103</v>
+        <v>47.59002402103097</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.54887493791823</v>
+        <v>70.5488749379182</v>
       </c>
       <c r="T29" t="n">
         <v>117.4569179417066</v>
@@ -2849,13 +2849,13 @@
         <v>150.0472415255962</v>
       </c>
       <c r="V29" t="n">
-        <v>231.3643436995844</v>
+        <v>231.3643436995843</v>
       </c>
       <c r="W29" t="n">
-        <v>256.6644431775413</v>
+        <v>256.6644431775412</v>
       </c>
       <c r="X29" t="n">
-        <v>275.9647014102879</v>
+        <v>275.9647014102878</v>
       </c>
       <c r="Y29" t="n">
         <v>287.3612992064866</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.87242863802513</v>
+        <v>40.87242863802512</v>
       </c>
       <c r="S30" t="n">
         <v>145.7925588210648</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.47467733410231</v>
+        <v>79.47467733410228</v>
       </c>
       <c r="C31" t="n">
-        <v>65.67467217950279</v>
+        <v>65.67467217950276</v>
       </c>
       <c r="D31" t="n">
-        <v>49.29603657708118</v>
+        <v>49.29603657708115</v>
       </c>
       <c r="E31" t="n">
-        <v>48.24378643286063</v>
+        <v>48.2437864328606</v>
       </c>
       <c r="F31" t="n">
-        <v>48.71071076104694</v>
+        <v>48.71071076104691</v>
       </c>
       <c r="G31" t="n">
-        <v>64.73812077240534</v>
+        <v>64.73812077240531</v>
       </c>
       <c r="H31" t="n">
-        <v>53.33512410172466</v>
+        <v>53.33512410172463</v>
       </c>
       <c r="I31" t="n">
-        <v>33.07911006586887</v>
+        <v>33.07911006586885</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66224642098909</v>
+        <v>34.66224642098906</v>
       </c>
       <c r="S31" t="n">
         <v>105.0178898064635</v>
       </c>
       <c r="T31" t="n">
-        <v>127.5454116827258</v>
+        <v>127.5454116827257</v>
       </c>
       <c r="U31" t="n">
         <v>182.0597107590852</v>
@@ -3010,13 +3010,13 @@
         <v>155.8828137337279</v>
       </c>
       <c r="W31" t="n">
-        <v>181.0496998043412</v>
+        <v>181.0496998043411</v>
       </c>
       <c r="X31" t="n">
-        <v>126.6948018001443</v>
+        <v>126.6948018001442</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.569669556212</v>
+        <v>117.5696695562119</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>221.6019569075396</v>
       </c>
       <c r="I32" t="n">
-        <v>47.59002402103104</v>
+        <v>47.59002402103103</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.47467733410232</v>
+        <v>79.47467733410231</v>
       </c>
       <c r="C34" t="n">
-        <v>65.67467217950281</v>
+        <v>65.67467217950279</v>
       </c>
       <c r="D34" t="n">
-        <v>49.2960365770812</v>
+        <v>49.29603657708118</v>
       </c>
       <c r="E34" t="n">
-        <v>48.24378643286065</v>
+        <v>48.24378643286063</v>
       </c>
       <c r="F34" t="n">
-        <v>48.71071076104695</v>
+        <v>48.71071076104694</v>
       </c>
       <c r="G34" t="n">
-        <v>64.73812077240537</v>
+        <v>64.73812077240534</v>
       </c>
       <c r="H34" t="n">
-        <v>53.33512410172467</v>
+        <v>53.33512410172466</v>
       </c>
       <c r="I34" t="n">
-        <v>33.07911006586889</v>
+        <v>33.07911006586888</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66224642098911</v>
+        <v>34.6622464209891</v>
       </c>
       <c r="S34" t="n">
         <v>105.0178898064635</v>
@@ -3241,7 +3241,7 @@
         <v>127.5454116827258</v>
       </c>
       <c r="U34" t="n">
-        <v>182.0597107590853</v>
+        <v>182.0597107590852</v>
       </c>
       <c r="V34" t="n">
         <v>155.8828137337279</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.1484683133044</v>
+        <v>224.1484683133043</v>
       </c>
       <c r="C35" t="n">
         <v>212.1597852709861</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.839376791817363</v>
+        <v>6.839376791817338</v>
       </c>
       <c r="T35" t="n">
-        <v>53.74741979560578</v>
+        <v>53.74741979560575</v>
       </c>
       <c r="U35" t="n">
-        <v>86.33774337949535</v>
+        <v>86.33774337949532</v>
       </c>
       <c r="V35" t="n">
         <v>167.6548455534835</v>
@@ -3332,7 +3332,7 @@
         <v>212.255203264187</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.6518010603858</v>
+        <v>223.6518010603857</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.76517918800144</v>
+        <v>15.76517918800141</v>
       </c>
       <c r="C37" t="n">
-        <v>1.965174033401922</v>
+        <v>1.965174033401894</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.028622626304479</v>
+        <v>1.028622626304451</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.44457564455141</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.30839166036263</v>
+        <v>41.3083916603626</v>
       </c>
       <c r="T37" t="n">
-        <v>207.3648943892301</v>
+        <v>63.83591353662488</v>
       </c>
       <c r="U37" t="n">
         <v>118.3502126129844</v>
       </c>
       <c r="V37" t="n">
-        <v>92.17331558762703</v>
+        <v>92.173315587627</v>
       </c>
       <c r="W37" t="n">
         <v>117.3402016582403</v>
       </c>
       <c r="X37" t="n">
-        <v>62.98530365404341</v>
+        <v>62.98530365404338</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.86017141011109</v>
+        <v>214.8337279072678</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.839376791817358</v>
+        <v>6.839376791817367</v>
       </c>
       <c r="T38" t="n">
-        <v>53.74741979560577</v>
+        <v>53.74741979560578</v>
       </c>
       <c r="U38" t="n">
         <v>86.33774337949535</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.028622626304479</v>
+        <v>1.02862262630448</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.44457564455142</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>202.2819481575192</v>
+        <v>41.30839166036263</v>
       </c>
       <c r="T40" t="n">
-        <v>63.83591353662491</v>
+        <v>207.3648943892301</v>
       </c>
       <c r="U40" t="n">
         <v>118.3502126129844</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>238.4426447593961</v>
+        <v>238.4426447593963</v>
       </c>
       <c r="C41" t="n">
-        <v>226.4539617170778</v>
+        <v>226.4539617170781</v>
       </c>
       <c r="D41" t="n">
-        <v>217.4352657616058</v>
+        <v>217.435265761606</v>
       </c>
       <c r="E41" t="n">
-        <v>239.1774033315114</v>
+        <v>239.1774033315116</v>
       </c>
       <c r="F41" t="n">
-        <v>58.23074917420404</v>
+        <v>58.23074917420081</v>
       </c>
       <c r="G41" t="n">
-        <v>259.7311906404614</v>
+        <v>259.7311906404616</v>
       </c>
       <c r="H41" t="n">
-        <v>172.1866352075304</v>
+        <v>172.1866352075307</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.1335532379091</v>
+        <v>21.13355323790933</v>
       </c>
       <c r="T41" t="n">
-        <v>68.04159624169752</v>
+        <v>68.04159624169775</v>
       </c>
       <c r="U41" t="n">
-        <v>100.6319198255871</v>
+        <v>100.6319198255873</v>
       </c>
       <c r="V41" t="n">
-        <v>181.9490219995752</v>
+        <v>181.9490219995755</v>
       </c>
       <c r="W41" t="n">
-        <v>207.2491214775321</v>
+        <v>207.2491214775324</v>
       </c>
       <c r="X41" t="n">
-        <v>226.5493797102787</v>
+        <v>226.549379710279</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.9459775064775</v>
+        <v>237.9459775064777</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.05935563409318</v>
+        <v>30.05935563409341</v>
       </c>
       <c r="C43" t="n">
-        <v>16.25935047949366</v>
+        <v>16.25935047949389</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>14.11198963452362</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.32279907239622</v>
+        <v>15.32279907239645</v>
       </c>
       <c r="H43" t="n">
-        <v>3.919802401715527</v>
+        <v>3.919802401715755</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.60256810645437</v>
+        <v>55.6025681064546</v>
       </c>
       <c r="T43" t="n">
-        <v>78.13008998271664</v>
+        <v>78.13008998271687</v>
       </c>
       <c r="U43" t="n">
-        <v>132.6443890590761</v>
+        <v>146.7563786935974</v>
       </c>
       <c r="V43" t="n">
-        <v>106.4674920337188</v>
+        <v>106.467492033719</v>
       </c>
       <c r="W43" t="n">
-        <v>131.634378104332</v>
+        <v>131.6343781043323</v>
       </c>
       <c r="X43" t="n">
-        <v>77.27948010013515</v>
+        <v>77.27948010013537</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.15434785620283</v>
+        <v>68.15434785620306</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>238.4426447593961</v>
+        <v>238.4426447593963</v>
       </c>
       <c r="C44" t="n">
-        <v>226.4539617170778</v>
+        <v>26.33549147179092</v>
       </c>
       <c r="D44" t="n">
-        <v>217.4352657616058</v>
+        <v>217.435265761606</v>
       </c>
       <c r="E44" t="n">
-        <v>239.1774033315114</v>
+        <v>239.1774033315116</v>
       </c>
       <c r="F44" t="n">
-        <v>258.3492194194885</v>
+        <v>258.3492194194887</v>
       </c>
       <c r="G44" t="n">
-        <v>259.7311906404614</v>
+        <v>259.7311906404616</v>
       </c>
       <c r="H44" t="n">
-        <v>61.2433144418539</v>
+        <v>172.1866352075307</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>21.13355323790933</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>68.04159624169773</v>
       </c>
       <c r="U44" t="n">
-        <v>100.6319198255871</v>
+        <v>100.6319198255873</v>
       </c>
       <c r="V44" t="n">
-        <v>181.9490219995752</v>
+        <v>181.9490219995755</v>
       </c>
       <c r="W44" t="n">
-        <v>207.2491214775321</v>
+        <v>207.2491214775324</v>
       </c>
       <c r="X44" t="n">
-        <v>226.5493797102787</v>
+        <v>226.549379710279</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.9459775064775</v>
+        <v>237.9459775064777</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.05935563409318</v>
+        <v>30.05935563409341</v>
       </c>
       <c r="C46" t="n">
-        <v>16.25935047949366</v>
+        <v>16.25935047949389</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.32279907239622</v>
+        <v>15.32279907239645</v>
       </c>
       <c r="H46" t="n">
-        <v>3.919802401715527</v>
+        <v>3.919802401715755</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.11198963452103</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.60256810645437</v>
+        <v>55.6025681064546</v>
       </c>
       <c r="T46" t="n">
-        <v>78.13008998271664</v>
+        <v>78.13008998271687</v>
       </c>
       <c r="U46" t="n">
-        <v>146.7563786935997</v>
+        <v>132.6443890590764</v>
       </c>
       <c r="V46" t="n">
-        <v>106.4674920337188</v>
+        <v>106.467492033719</v>
       </c>
       <c r="W46" t="n">
-        <v>131.634378104332</v>
+        <v>131.6343781043323</v>
       </c>
       <c r="X46" t="n">
-        <v>77.27948010013515</v>
+        <v>77.27948010013537</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.15434785620283</v>
+        <v>68.15434785620306</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.698776815728</v>
+        <v>737.6692155370499</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.042934980286</v>
+        <v>737.6692155370499</v>
       </c>
       <c r="D11" t="n">
-        <v>770.4968870392611</v>
+        <v>468.1231675960247</v>
       </c>
       <c r="E11" t="n">
-        <v>632.8178378826717</v>
+        <v>359.5108155093957</v>
       </c>
       <c r="F11" t="n">
-        <v>632.8178378826717</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="G11" t="n">
-        <v>320.5486334983582</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="H11" t="n">
-        <v>96.70827298569199</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I11" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J11" t="n">
         <v>166.9587960540178</v>
       </c>
       <c r="K11" t="n">
-        <v>476.5249026596702</v>
+        <v>476.5249026596701</v>
       </c>
       <c r="L11" t="n">
-        <v>910.5390385107647</v>
+        <v>610.1111321411072</v>
       </c>
       <c r="M11" t="n">
-        <v>1399.613048577115</v>
+        <v>1099.185142207458</v>
       </c>
       <c r="N11" t="n">
-        <v>1875.329959043237</v>
+        <v>1574.902052673579</v>
       </c>
       <c r="O11" t="n">
-        <v>2272.292958531294</v>
+        <v>1971.865052161636</v>
       </c>
       <c r="P11" t="n">
-        <v>2431.877082565864</v>
+        <v>2278.50632830006</v>
       </c>
       <c r="Q11" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R11" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.615592729583</v>
+        <v>2360.615592729584</v>
       </c>
       <c r="T11" t="n">
         <v>2241.972241273314</v>
       </c>
       <c r="U11" t="n">
-        <v>2090.409371045438</v>
+        <v>2090.40937104544</v>
       </c>
       <c r="V11" t="n">
-        <v>1856.708013773131</v>
+        <v>1856.708013773133</v>
       </c>
       <c r="W11" t="n">
-        <v>1597.451000462483</v>
+        <v>1597.451000462485</v>
       </c>
       <c r="X11" t="n">
-        <v>1318.698776815728</v>
+        <v>1318.698776815729</v>
       </c>
       <c r="Y11" t="n">
-        <v>1318.698776815728</v>
+        <v>1028.434838223318</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>817.7979917355956</v>
+        <v>817.7979917355965</v>
       </c>
       <c r="C12" t="n">
-        <v>656.0943189765503</v>
+        <v>656.0943189765512</v>
       </c>
       <c r="D12" t="n">
-        <v>613.9741416490281</v>
+        <v>517.2556819667633</v>
       </c>
       <c r="E12" t="n">
-        <v>466.9461317058993</v>
+        <v>408.8221857221934</v>
       </c>
       <c r="F12" t="n">
-        <v>332.2523336557737</v>
+        <v>274.1283876720677</v>
       </c>
       <c r="G12" t="n">
-        <v>203.8217828977056</v>
+        <v>145.6978369139995</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7614876350234</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I12" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J12" t="n">
-        <v>48.63754165131728</v>
+        <v>136.481176995455</v>
       </c>
       <c r="K12" t="n">
-        <v>325.2829249786826</v>
+        <v>413.1265603228203</v>
       </c>
       <c r="L12" t="n">
-        <v>754.5102593828226</v>
+        <v>842.3538947269603</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.12401258353</v>
+        <v>1401.378463529573</v>
       </c>
       <c r="N12" t="n">
-        <v>1612.339201300096</v>
+        <v>1988.593652246138</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.018145609711</v>
+        <v>1988.593652246138</v>
       </c>
       <c r="P12" t="n">
-        <v>2431.877082565864</v>
+        <v>2346.452589202291</v>
       </c>
       <c r="Q12" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R12" t="n">
         <v>2390.591801113314</v>
       </c>
       <c r="S12" t="n">
-        <v>2243.326590182945</v>
+        <v>2243.326590182946</v>
       </c>
       <c r="T12" t="n">
-        <v>2055.84243078725</v>
+        <v>2055.842430787251</v>
       </c>
       <c r="U12" t="n">
-        <v>1837.367240307839</v>
+        <v>1837.36724030784</v>
       </c>
       <c r="V12" t="n">
-        <v>1608.971617756173</v>
+        <v>1608.971617756174</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.655748989483</v>
+        <v>1367.655748989484</v>
       </c>
       <c r="X12" t="n">
-        <v>1169.738760867278</v>
+        <v>1169.738760867279</v>
       </c>
       <c r="Y12" t="n">
-        <v>977.2174345168565</v>
+        <v>977.2174345168575</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.3825526518128</v>
+        <v>415.382552651813</v>
       </c>
       <c r="C13" t="n">
-        <v>349.0444999452444</v>
+        <v>349.0444999452445</v>
       </c>
       <c r="D13" t="n">
-        <v>299.2505236047584</v>
+        <v>299.2505236047583</v>
       </c>
       <c r="E13" t="n">
-        <v>250.5194261978285</v>
+        <v>250.5194261978283</v>
       </c>
       <c r="F13" t="n">
-        <v>201.3166880553568</v>
+        <v>201.3166880553566</v>
       </c>
       <c r="G13" t="n">
         <v>135.9246468711087</v>
       </c>
       <c r="H13" t="n">
-        <v>82.0507841420939</v>
+        <v>82.05078414209385</v>
       </c>
       <c r="I13" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J13" t="n">
-        <v>108.3068870504373</v>
+        <v>108.3068870504374</v>
       </c>
       <c r="K13" t="n">
-        <v>271.5773685848639</v>
+        <v>271.5773685848643</v>
       </c>
       <c r="L13" t="n">
-        <v>509.8051590844266</v>
+        <v>509.8051590844269</v>
       </c>
       <c r="M13" t="n">
-        <v>767.3979652839569</v>
+        <v>767.3979652839573</v>
       </c>
       <c r="N13" t="n">
         <v>1024.507097005625</v>
@@ -5215,13 +5215,13 @@
         <v>1258.797593282354</v>
       </c>
       <c r="P13" t="n">
-        <v>1452.598603220585</v>
+        <v>1452.598603220586</v>
       </c>
       <c r="Q13" t="n">
         <v>1536.551159619279</v>
       </c>
       <c r="R13" t="n">
-        <v>1501.538789497067</v>
+        <v>1501.538789497068</v>
       </c>
       <c r="S13" t="n">
         <v>1395.460112924882</v>
@@ -5233,16 +5233,16 @@
         <v>1082.727666013962</v>
       </c>
       <c r="V13" t="n">
-        <v>925.2702784041356</v>
+        <v>925.270278404136</v>
       </c>
       <c r="W13" t="n">
-        <v>742.391793753286</v>
+        <v>742.3917937532864</v>
       </c>
       <c r="X13" t="n">
-        <v>614.417246480413</v>
+        <v>614.4172464804134</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.6600045044414</v>
+        <v>495.6600045044416</v>
       </c>
     </row>
     <row r="14">
@@ -5252,58 +5252,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1472.527530721281</v>
+        <v>1131.553065798529</v>
       </c>
       <c r="C14" t="n">
-        <v>1193.871688885839</v>
+        <v>852.8972239630874</v>
       </c>
       <c r="D14" t="n">
-        <v>924.3256409448143</v>
+        <v>583.351176022062</v>
       </c>
       <c r="E14" t="n">
-        <v>632.8178378826724</v>
+        <v>583.351176022062</v>
       </c>
       <c r="F14" t="n">
-        <v>632.8178378826724</v>
+        <v>272.4779021639836</v>
       </c>
       <c r="G14" t="n">
-        <v>320.5486334983589</v>
+        <v>272.4779021639836</v>
       </c>
       <c r="H14" t="n">
-        <v>96.70827298569202</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I14" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J14" t="n">
-        <v>166.9587960540177</v>
+        <v>166.9587960540178</v>
       </c>
       <c r="K14" t="n">
-        <v>176.0969962900118</v>
+        <v>476.5249026596701</v>
       </c>
       <c r="L14" t="n">
-        <v>610.1111321411063</v>
+        <v>910.5390385107646</v>
       </c>
       <c r="M14" t="n">
-        <v>1099.185142207457</v>
+        <v>1399.613048577115</v>
       </c>
       <c r="N14" t="n">
-        <v>1574.902052673578</v>
+        <v>1728.272806939384</v>
       </c>
       <c r="O14" t="n">
-        <v>1971.865052161636</v>
+        <v>2125.235806427442</v>
       </c>
       <c r="P14" t="n">
-        <v>2278.506328300059</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="Q14" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R14" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.615592729583</v>
+        <v>2360.615592729584</v>
       </c>
       <c r="T14" t="n">
         <v>2241.972241273314</v>
@@ -5315,13 +5315,13 @@
         <v>1856.708013773132</v>
       </c>
       <c r="W14" t="n">
-        <v>1597.451000462484</v>
+        <v>1701.070912131552</v>
       </c>
       <c r="X14" t="n">
-        <v>1597.451000462484</v>
+        <v>1422.318688484797</v>
       </c>
       <c r="Y14" t="n">
-        <v>1472.527530721281</v>
+        <v>1422.318688484797</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>817.7979917355956</v>
+        <v>817.7979917355965</v>
       </c>
       <c r="C15" t="n">
-        <v>656.0943189765503</v>
+        <v>656.0943189765512</v>
       </c>
       <c r="D15" t="n">
-        <v>517.2556819667624</v>
+        <v>517.2556819667633</v>
       </c>
       <c r="E15" t="n">
-        <v>370.2276720236336</v>
+        <v>370.2276720236345</v>
       </c>
       <c r="F15" t="n">
-        <v>235.533873973508</v>
+        <v>235.5338739735089</v>
       </c>
       <c r="G15" t="n">
-        <v>107.1033232154398</v>
+        <v>203.8217828977056</v>
       </c>
       <c r="H15" t="n">
         <v>106.7614876350234</v>
       </c>
       <c r="I15" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J15" t="n">
-        <v>48.63754165131728</v>
+        <v>136.481176995455</v>
       </c>
       <c r="K15" t="n">
-        <v>48.63754165131728</v>
+        <v>413.1265603228203</v>
       </c>
       <c r="L15" t="n">
-        <v>477.8648760554573</v>
+        <v>842.3538947269603</v>
       </c>
       <c r="M15" t="n">
-        <v>830.0762822289622</v>
+        <v>1401.378463529573</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.291470945528</v>
+        <v>1417.291470945529</v>
       </c>
       <c r="O15" t="n">
-        <v>1878.970415255143</v>
+        <v>1878.970415255144</v>
       </c>
       <c r="P15" t="n">
-        <v>2236.829352211296</v>
+        <v>2236.829352211297</v>
       </c>
       <c r="Q15" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R15" t="n">
         <v>2390.591801113314</v>
       </c>
       <c r="S15" t="n">
-        <v>2243.326590182945</v>
+        <v>2243.326590182946</v>
       </c>
       <c r="T15" t="n">
-        <v>2055.84243078725</v>
+        <v>2055.842430787251</v>
       </c>
       <c r="U15" t="n">
-        <v>1837.367240307839</v>
+        <v>1837.36724030784</v>
       </c>
       <c r="V15" t="n">
-        <v>1608.971617756173</v>
+        <v>1608.971617756174</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.655748989483</v>
+        <v>1367.655748989484</v>
       </c>
       <c r="X15" t="n">
-        <v>1169.738760867278</v>
+        <v>1169.738760867279</v>
       </c>
       <c r="Y15" t="n">
-        <v>977.2174345168565</v>
+        <v>977.2174345168575</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.3825526518125</v>
+        <v>415.3825526518129</v>
       </c>
       <c r="C16" t="n">
-        <v>349.0444999452441</v>
+        <v>349.0444999452444</v>
       </c>
       <c r="D16" t="n">
-        <v>299.250523604758</v>
+        <v>299.2505236047583</v>
       </c>
       <c r="E16" t="n">
-        <v>250.5194261978281</v>
+        <v>250.5194261978284</v>
       </c>
       <c r="F16" t="n">
-        <v>201.3166880553565</v>
+        <v>201.3166880553567</v>
       </c>
       <c r="G16" t="n">
-        <v>135.9246468711087</v>
+        <v>135.9246468711088</v>
       </c>
       <c r="H16" t="n">
-        <v>82.0507841420939</v>
+        <v>82.05078414209399</v>
       </c>
       <c r="I16" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J16" t="n">
-        <v>108.3068870504366</v>
+        <v>108.3068870504373</v>
       </c>
       <c r="K16" t="n">
-        <v>271.5773685848633</v>
+        <v>271.5773685848638</v>
       </c>
       <c r="L16" t="n">
-        <v>509.8051590844259</v>
+        <v>509.8051590844271</v>
       </c>
       <c r="M16" t="n">
-        <v>767.3979652839562</v>
+        <v>767.3979652839573</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.507097005624</v>
+        <v>1024.507097005625</v>
       </c>
       <c r="O16" t="n">
-        <v>1258.797593282354</v>
+        <v>1258.797593282355</v>
       </c>
       <c r="P16" t="n">
-        <v>1452.598603220585</v>
+        <v>1452.598603220586</v>
       </c>
       <c r="Q16" t="n">
-        <v>1536.551159619278</v>
+        <v>1536.551159619279</v>
       </c>
       <c r="R16" t="n">
-        <v>1501.538789497067</v>
+        <v>1501.538789497068</v>
       </c>
       <c r="S16" t="n">
         <v>1395.460112924882</v>
       </c>
       <c r="T16" t="n">
-        <v>1266.626363750411</v>
+        <v>1266.626363750412</v>
       </c>
       <c r="U16" t="n">
-        <v>1082.727666013961</v>
+        <v>1082.727666013962</v>
       </c>
       <c r="V16" t="n">
-        <v>925.2702784041353</v>
+        <v>925.270278404136</v>
       </c>
       <c r="W16" t="n">
-        <v>742.3917937532857</v>
+        <v>742.3917937532863</v>
       </c>
       <c r="X16" t="n">
-        <v>614.4172464804127</v>
+        <v>614.4172464804133</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.6600045044411</v>
+        <v>495.6600045044416</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1307.761134227298</v>
+        <v>1307.761134227299</v>
       </c>
       <c r="C17" t="n">
-        <v>1100.366782228137</v>
+        <v>1100.366782228139</v>
       </c>
       <c r="D17" t="n">
-        <v>902.0822241233931</v>
+        <v>902.0822241233944</v>
       </c>
       <c r="E17" t="n">
-        <v>681.8359108975322</v>
+        <v>681.8359108975336</v>
       </c>
       <c r="F17" t="n">
-        <v>442.2241268757349</v>
+        <v>442.2241268757363</v>
       </c>
       <c r="G17" t="n">
-        <v>201.2164123277025</v>
+        <v>201.2164123277042</v>
       </c>
       <c r="H17" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I17" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J17" t="n">
-        <v>166.9587960540177</v>
+        <v>166.9587960540178</v>
       </c>
       <c r="K17" t="n">
-        <v>176.0969962900118</v>
+        <v>476.5249026596701</v>
       </c>
       <c r="L17" t="n">
-        <v>610.1111321411063</v>
+        <v>610.1111321411072</v>
       </c>
       <c r="M17" t="n">
-        <v>1099.185142207457</v>
+        <v>1099.185142207458</v>
       </c>
       <c r="N17" t="n">
-        <v>1574.902052673578</v>
+        <v>1574.902052673579</v>
       </c>
       <c r="O17" t="n">
         <v>1971.865052161636</v>
       </c>
       <c r="P17" t="n">
-        <v>2278.506328300059</v>
+        <v>2278.50632830006</v>
       </c>
       <c r="Q17" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R17" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="S17" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="T17" t="n">
-        <v>2384.495220945876</v>
+        <v>2384.495220945877</v>
       </c>
       <c r="U17" t="n">
-        <v>2304.193840554282</v>
+        <v>2304.193840554283</v>
       </c>
       <c r="V17" t="n">
-        <v>2141.753973118256</v>
+        <v>2141.753973118257</v>
       </c>
       <c r="W17" t="n">
-        <v>1953.758449643889</v>
+        <v>1953.75844964389</v>
       </c>
       <c r="X17" t="n">
-        <v>1746.267715833414</v>
+        <v>1746.267715833416</v>
       </c>
       <c r="Y17" t="n">
-        <v>1527.265267077285</v>
+        <v>1527.265267077286</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>914.5164514178613</v>
+        <v>817.7979917355965</v>
       </c>
       <c r="C18" t="n">
-        <v>752.812778658816</v>
+        <v>656.0943189765512</v>
       </c>
       <c r="D18" t="n">
-        <v>613.9741416490281</v>
+        <v>517.2556819667633</v>
       </c>
       <c r="E18" t="n">
-        <v>466.9461317058993</v>
+        <v>370.2276720236345</v>
       </c>
       <c r="F18" t="n">
-        <v>332.2523336557737</v>
+        <v>332.2523336557738</v>
       </c>
       <c r="G18" t="n">
         <v>203.8217828977056</v>
@@ -5589,55 +5589,55 @@
         <v>106.7614876350234</v>
       </c>
       <c r="I18" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J18" t="n">
-        <v>48.63754165131728</v>
+        <v>136.481176995455</v>
       </c>
       <c r="K18" t="n">
-        <v>48.63754165131728</v>
+        <v>413.1265603228203</v>
       </c>
       <c r="L18" t="n">
-        <v>477.8648760554573</v>
+        <v>842.3538947269603</v>
       </c>
       <c r="M18" t="n">
-        <v>1036.88944485807</v>
+        <v>1401.378463529573</v>
       </c>
       <c r="N18" t="n">
-        <v>1624.104633574635</v>
+        <v>1612.339201300097</v>
       </c>
       <c r="O18" t="n">
-        <v>2074.018145609711</v>
+        <v>2074.018145609712</v>
       </c>
       <c r="P18" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="Q18" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R18" t="n">
-        <v>2431.877082565864</v>
+        <v>2390.591801113314</v>
       </c>
       <c r="S18" t="n">
-        <v>2340.04504986521</v>
+        <v>2243.326590182946</v>
       </c>
       <c r="T18" t="n">
-        <v>2152.560890469515</v>
+        <v>2055.842430787251</v>
       </c>
       <c r="U18" t="n">
-        <v>1934.085699990105</v>
+        <v>1837.36724030784</v>
       </c>
       <c r="V18" t="n">
-        <v>1705.690077438438</v>
+        <v>1608.971617756174</v>
       </c>
       <c r="W18" t="n">
-        <v>1464.374208671749</v>
+        <v>1367.655748989484</v>
       </c>
       <c r="X18" t="n">
-        <v>1266.457220549543</v>
+        <v>1169.738760867279</v>
       </c>
       <c r="Y18" t="n">
-        <v>1073.935894199122</v>
+        <v>977.2174345168575</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="C19" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="D19" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="E19" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="F19" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="G19" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="H19" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I19" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J19" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="K19" t="n">
         <v>110.6853368989445</v>
@@ -5698,7 +5698,7 @@
         <v>785.5931401006691</v>
       </c>
       <c r="S19" t="n">
-        <v>750.7759533647647</v>
+        <v>704.4240797384517</v>
       </c>
       <c r="T19" t="n">
         <v>646.8518204002622</v>
@@ -5716,7 +5716,7 @@
         <v>105.1492558073555</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.65350366766484</v>
+        <v>57.65350366766486</v>
       </c>
     </row>
     <row r="20">
@@ -5732,64 +5732,64 @@
         <v>1100.366782228138</v>
       </c>
       <c r="D20" t="n">
-        <v>902.0822241233936</v>
+        <v>902.0822241233939</v>
       </c>
       <c r="E20" t="n">
-        <v>681.8359108975328</v>
+        <v>681.8359108975329</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2241268757355</v>
+        <v>442.2241268757357</v>
       </c>
       <c r="G20" t="n">
-        <v>201.2164123277025</v>
+        <v>201.2164123277028</v>
       </c>
       <c r="H20" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I20" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J20" t="n">
-        <v>166.9587960540177</v>
+        <v>166.9587960540178</v>
       </c>
       <c r="K20" t="n">
-        <v>476.5249026596701</v>
+        <v>176.0969962900127</v>
       </c>
       <c r="L20" t="n">
-        <v>910.5390385107646</v>
+        <v>610.1111321411072</v>
       </c>
       <c r="M20" t="n">
-        <v>1399.613048577115</v>
+        <v>1099.185142207458</v>
       </c>
       <c r="N20" t="n">
-        <v>1875.329959043236</v>
+        <v>1574.902052673579</v>
       </c>
       <c r="O20" t="n">
-        <v>2272.292958531294</v>
+        <v>1971.865052161636</v>
       </c>
       <c r="P20" t="n">
-        <v>2431.877082565864</v>
+        <v>2278.50632830006</v>
       </c>
       <c r="Q20" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R20" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="S20" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="T20" t="n">
-        <v>2384.495220945876</v>
+        <v>2384.495220945877</v>
       </c>
       <c r="U20" t="n">
-        <v>2304.193840554282</v>
+        <v>2304.193840554283</v>
       </c>
       <c r="V20" t="n">
         <v>2141.753973118256</v>
       </c>
       <c r="W20" t="n">
-        <v>1953.758449643889</v>
+        <v>1953.75844964389</v>
       </c>
       <c r="X20" t="n">
         <v>1746.267715833415</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>914.5164514178613</v>
+        <v>817.7979917355965</v>
       </c>
       <c r="C21" t="n">
-        <v>752.812778658816</v>
+        <v>656.0943189765512</v>
       </c>
       <c r="D21" t="n">
-        <v>613.9741416490281</v>
+        <v>555.8501956653222</v>
       </c>
       <c r="E21" t="n">
-        <v>466.9461317058993</v>
+        <v>408.8221857221934</v>
       </c>
       <c r="F21" t="n">
-        <v>332.2523336557737</v>
+        <v>274.1283876720677</v>
       </c>
       <c r="G21" t="n">
-        <v>203.8217828977056</v>
+        <v>145.6978369139995</v>
       </c>
       <c r="H21" t="n">
-        <v>106.7614876350234</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I21" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J21" t="n">
         <v>136.481176995455</v>
@@ -5835,46 +5835,46 @@
         <v>413.1265603228203</v>
       </c>
       <c r="L21" t="n">
-        <v>413.1265603228203</v>
+        <v>842.3538947269603</v>
       </c>
       <c r="M21" t="n">
-        <v>972.151129125433</v>
+        <v>1401.378463529573</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.366317841998</v>
+        <v>1417.291470945529</v>
       </c>
       <c r="O21" t="n">
-        <v>2021.045262151614</v>
+        <v>1878.970415255144</v>
       </c>
       <c r="P21" t="n">
-        <v>2236.829352211296</v>
+        <v>2236.829352211297</v>
       </c>
       <c r="Q21" t="n">
-        <v>2431.877082565864</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R21" t="n">
         <v>2390.591801113314</v>
       </c>
       <c r="S21" t="n">
-        <v>2340.04504986521</v>
+        <v>2243.326590182946</v>
       </c>
       <c r="T21" t="n">
-        <v>2152.560890469515</v>
+        <v>2055.842430787251</v>
       </c>
       <c r="U21" t="n">
-        <v>1934.085699990105</v>
+        <v>1837.36724030784</v>
       </c>
       <c r="V21" t="n">
-        <v>1705.690077438438</v>
+        <v>1608.971617756174</v>
       </c>
       <c r="W21" t="n">
-        <v>1464.374208671749</v>
+        <v>1367.655748989484</v>
       </c>
       <c r="X21" t="n">
-        <v>1266.457220549543</v>
+        <v>1169.738760867279</v>
       </c>
       <c r="Y21" t="n">
-        <v>1073.935894199122</v>
+        <v>977.2174345168575</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="C22" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="D22" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="E22" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="F22" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="G22" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="H22" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I22" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J22" t="n">
-        <v>48.63754165131728</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="K22" t="n">
         <v>110.6853368989445</v>
@@ -5932,28 +5932,28 @@
         <v>785.5931401006691</v>
       </c>
       <c r="R22" t="n">
-        <v>785.5931401006691</v>
+        <v>647.3028531467066</v>
       </c>
       <c r="S22" t="n">
-        <v>576.2365466967325</v>
+        <v>529.8846730704195</v>
       </c>
       <c r="T22" t="n">
-        <v>472.3124137322297</v>
+        <v>472.31241373223</v>
       </c>
       <c r="U22" t="n">
-        <v>359.6752058320611</v>
+        <v>359.6752058320612</v>
       </c>
       <c r="V22" t="n">
-        <v>273.479308058516</v>
+        <v>273.4793080585161</v>
       </c>
       <c r="W22" t="n">
-        <v>161.8623132439474</v>
+        <v>161.8623132439475</v>
       </c>
       <c r="X22" t="n">
-        <v>105.1492558073554</v>
+        <v>105.1492558073555</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.65350366766481</v>
+        <v>57.65350366766486</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1307.761134227298</v>
+        <v>1307.761134227299</v>
       </c>
       <c r="C23" t="n">
-        <v>1100.366782228137</v>
+        <v>1100.366782228139</v>
       </c>
       <c r="D23" t="n">
-        <v>902.0822241233932</v>
+        <v>902.0822241233946</v>
       </c>
       <c r="E23" t="n">
-        <v>681.8359108975324</v>
+        <v>681.8359108975335</v>
       </c>
       <c r="F23" t="n">
-        <v>442.224126875735</v>
+        <v>442.224126875736</v>
       </c>
       <c r="G23" t="n">
-        <v>201.2164123277024</v>
+        <v>201.2164123277025</v>
       </c>
       <c r="H23" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I23" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J23" t="n">
-        <v>166.9587960540177</v>
+        <v>166.9587960540178</v>
       </c>
       <c r="K23" t="n">
         <v>476.5249026596701</v>
@@ -6005,34 +6005,34 @@
         <v>2272.292958531294</v>
       </c>
       <c r="P23" t="n">
-        <v>2431.877082565863</v>
+        <v>2278.50632830006</v>
       </c>
       <c r="Q23" t="n">
-        <v>2431.877082565863</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R23" t="n">
-        <v>2431.877082565863</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="S23" t="n">
-        <v>2431.877082565863</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="T23" t="n">
-        <v>2384.495220945875</v>
+        <v>2384.495220945877</v>
       </c>
       <c r="U23" t="n">
-        <v>2304.193840554281</v>
+        <v>2304.193840554283</v>
       </c>
       <c r="V23" t="n">
-        <v>2141.753973118255</v>
+        <v>2141.753973118257</v>
       </c>
       <c r="W23" t="n">
-        <v>1953.758449643889</v>
+        <v>1953.75844964389</v>
       </c>
       <c r="X23" t="n">
-        <v>1746.267715833414</v>
+        <v>1746.267715833416</v>
       </c>
       <c r="Y23" t="n">
-        <v>1527.265267077285</v>
+        <v>1527.265267077286</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>859.0832731881455</v>
+        <v>817.7979917355965</v>
       </c>
       <c r="C24" t="n">
-        <v>697.3796004291003</v>
+        <v>656.0943189765512</v>
       </c>
       <c r="D24" t="n">
-        <v>558.5409634193123</v>
+        <v>517.2556819667633</v>
       </c>
       <c r="E24" t="n">
-        <v>411.5129534761836</v>
+        <v>370.2276720236345</v>
       </c>
       <c r="F24" t="n">
-        <v>332.2523336557737</v>
+        <v>235.5338739735089</v>
       </c>
       <c r="G24" t="n">
-        <v>203.8217828977056</v>
+        <v>107.1033232154407</v>
       </c>
       <c r="H24" t="n">
         <v>106.7614876350234</v>
       </c>
       <c r="I24" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J24" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="K24" t="n">
-        <v>48.63754165131727</v>
+        <v>325.2829249786826</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8648760554573</v>
+        <v>325.2829249786826</v>
       </c>
       <c r="M24" t="n">
-        <v>1036.88944485807</v>
+        <v>884.3074937812953</v>
       </c>
       <c r="N24" t="n">
-        <v>1612.339201300095</v>
+        <v>1471.522682497861</v>
       </c>
       <c r="O24" t="n">
-        <v>2074.018145609711</v>
+        <v>1933.201626807476</v>
       </c>
       <c r="P24" t="n">
-        <v>2431.877082565863</v>
+        <v>2291.060563763629</v>
       </c>
       <c r="Q24" t="n">
-        <v>2431.877082565863</v>
+        <v>2431.877082565865</v>
       </c>
       <c r="R24" t="n">
-        <v>2431.877082565863</v>
+        <v>2390.591801113314</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.611871635495</v>
+        <v>2243.326590182946</v>
       </c>
       <c r="T24" t="n">
-        <v>2097.1277122398</v>
+        <v>2055.842430787251</v>
       </c>
       <c r="U24" t="n">
-        <v>1878.652521760389</v>
+        <v>1837.36724030784</v>
       </c>
       <c r="V24" t="n">
-        <v>1650.256899208723</v>
+        <v>1608.971617756174</v>
       </c>
       <c r="W24" t="n">
-        <v>1408.941030442033</v>
+        <v>1367.655748989484</v>
       </c>
       <c r="X24" t="n">
-        <v>1211.024042319828</v>
+        <v>1169.738760867279</v>
       </c>
       <c r="Y24" t="n">
-        <v>1018.502715969406</v>
+        <v>977.2174345168575</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="C25" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="D25" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="E25" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="F25" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="G25" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="H25" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="I25" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="J25" t="n">
-        <v>48.63754165131727</v>
+        <v>48.6375416513173</v>
       </c>
       <c r="K25" t="n">
         <v>110.6853368989445</v>
@@ -6169,28 +6169,28 @@
         <v>785.5931401006691</v>
       </c>
       <c r="R25" t="n">
-        <v>785.5931401006691</v>
+        <v>647.3028531467066</v>
       </c>
       <c r="S25" t="n">
-        <v>576.2365466967325</v>
+        <v>612.4856664108023</v>
       </c>
       <c r="T25" t="n">
-        <v>472.3124137322297</v>
+        <v>472.31241373223</v>
       </c>
       <c r="U25" t="n">
-        <v>359.6752058320611</v>
+        <v>359.6752058320612</v>
       </c>
       <c r="V25" t="n">
-        <v>273.479308058516</v>
+        <v>273.4793080585161</v>
       </c>
       <c r="W25" t="n">
-        <v>161.8623132439474</v>
+        <v>161.8623132439475</v>
       </c>
       <c r="X25" t="n">
-        <v>105.1492558073554</v>
+        <v>105.1492558073555</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.6535036676648</v>
+        <v>57.65350366766486</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1804.742265580222</v>
+        <v>1804.742265580224</v>
       </c>
       <c r="C26" t="n">
-        <v>1526.086423744781</v>
+        <v>1526.086423744782</v>
       </c>
       <c r="D26" t="n">
-        <v>1256.540375803756</v>
+        <v>1256.540375803757</v>
       </c>
       <c r="E26" t="n">
-        <v>965.0325727416141</v>
+        <v>965.0325727416152</v>
       </c>
       <c r="F26" t="n">
-        <v>654.1592988835357</v>
+        <v>654.1592988835368</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8900944992217</v>
+        <v>341.8900944992233</v>
       </c>
       <c r="H26" t="n">
-        <v>118.0497339865556</v>
+        <v>118.0497339865555</v>
       </c>
       <c r="I26" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218075</v>
       </c>
       <c r="J26" t="n">
         <v>289.5229433416806</v>
       </c>
       <c r="K26" t="n">
-        <v>599.0890499473328</v>
+        <v>700.3117362341324</v>
       </c>
       <c r="L26" t="n">
-        <v>1134.325872085226</v>
+        <v>1235.548558372026</v>
       </c>
       <c r="M26" t="n">
-        <v>1724.622568438376</v>
+        <v>1815.917945752633</v>
       </c>
       <c r="N26" t="n">
-        <v>2301.562165191297</v>
+        <v>2392.857542505554</v>
       </c>
       <c r="O26" t="n">
-        <v>2799.747850966154</v>
+        <v>2891.043228280411</v>
       </c>
       <c r="P26" t="n">
-        <v>3207.611813391376</v>
+        <v>3197.684504418834</v>
       </c>
       <c r="Q26" t="n">
         <v>3452.277944971439</v>
@@ -6251,7 +6251,7 @@
         <v>3498.950132609038</v>
       </c>
       <c r="S26" t="n">
-        <v>3427.688642772758</v>
+        <v>3427.688642772757</v>
       </c>
       <c r="T26" t="n">
         <v>3309.045291316488</v>
@@ -6266,10 +6266,10 @@
         <v>2664.524050505658</v>
       </c>
       <c r="X26" t="n">
-        <v>2385.771826858903</v>
+        <v>2385.771826858902</v>
       </c>
       <c r="Y26" t="n">
-        <v>2095.50788826649</v>
+        <v>2095.507888266492</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>488.2875927067629</v>
       </c>
       <c r="F27" t="n">
-        <v>353.5937946566373</v>
+        <v>353.5937946566372</v>
       </c>
       <c r="G27" t="n">
         <v>225.1632438985691</v>
       </c>
       <c r="H27" t="n">
-        <v>128.1029486358869</v>
+        <v>128.1029486358868</v>
       </c>
       <c r="I27" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218075</v>
       </c>
       <c r="J27" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218075</v>
       </c>
       <c r="K27" t="n">
-        <v>154.9320300599071</v>
+        <v>346.624385979546</v>
       </c>
       <c r="L27" t="n">
-        <v>584.159364464047</v>
+        <v>775.851720383686</v>
       </c>
       <c r="M27" t="n">
-        <v>1143.18393326666</v>
+        <v>948.1362029120916</v>
       </c>
       <c r="N27" t="n">
-        <v>1730.399121983225</v>
+        <v>1535.351391628657</v>
       </c>
       <c r="O27" t="n">
-        <v>2192.078066292841</v>
+        <v>1997.030335938272</v>
       </c>
       <c r="P27" t="n">
-        <v>2549.937003248993</v>
+        <v>2354.889272894425</v>
       </c>
       <c r="Q27" t="n">
         <v>2549.937003248993</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>436.7240136526764</v>
+        <v>436.7240136526758</v>
       </c>
       <c r="C28" t="n">
-        <v>370.3859609461079</v>
+        <v>370.3859609461074</v>
       </c>
       <c r="D28" t="n">
-        <v>320.5919846056219</v>
+        <v>320.5919846056213</v>
       </c>
       <c r="E28" t="n">
-        <v>271.860887198692</v>
+        <v>271.8608871986914</v>
       </c>
       <c r="F28" t="n">
-        <v>222.6581490562203</v>
+        <v>222.6581490562198</v>
       </c>
       <c r="G28" t="n">
-        <v>157.2661078719725</v>
+        <v>157.2661078719721</v>
       </c>
       <c r="H28" t="n">
         <v>103.3922451429574</v>
       </c>
       <c r="I28" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218075</v>
       </c>
       <c r="J28" t="n">
-        <v>129.6483480513008</v>
+        <v>129.6483480513007</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9188295857274</v>
+        <v>292.9188295857273</v>
       </c>
       <c r="L28" t="n">
-        <v>531.14662008529</v>
+        <v>531.1466200852901</v>
       </c>
       <c r="M28" t="n">
-        <v>788.7394262848202</v>
+        <v>788.7394262848204</v>
       </c>
       <c r="N28" t="n">
         <v>1045.848558006488</v>
@@ -6412,22 +6412,22 @@
         <v>1416.801573925746</v>
       </c>
       <c r="T28" t="n">
-        <v>1287.967824751275</v>
+        <v>1287.967824751276</v>
       </c>
       <c r="U28" t="n">
-        <v>1104.069127014826</v>
+        <v>1104.069127014825</v>
       </c>
       <c r="V28" t="n">
-        <v>946.6117394049995</v>
+        <v>946.6117394049988</v>
       </c>
       <c r="W28" t="n">
-        <v>763.7332547541499</v>
+        <v>763.7332547541492</v>
       </c>
       <c r="X28" t="n">
-        <v>635.7587074812769</v>
+        <v>635.7587074812762</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.001465505305</v>
+        <v>517.0014655053044</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1804.742265580224</v>
+        <v>1804.742265580223</v>
       </c>
       <c r="C29" t="n">
-        <v>1526.086423744782</v>
+        <v>1526.086423744781</v>
       </c>
       <c r="D29" t="n">
-        <v>1256.540375803757</v>
+        <v>1256.540375803756</v>
       </c>
       <c r="E29" t="n">
-        <v>965.032572741615</v>
+        <v>965.0325727416143</v>
       </c>
       <c r="F29" t="n">
-        <v>654.1592988835365</v>
+        <v>654.1592988835359</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8900944992229</v>
+        <v>341.8900944992224</v>
       </c>
       <c r="H29" t="n">
         <v>118.0497339865555</v>
       </c>
       <c r="I29" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218075</v>
       </c>
       <c r="J29" t="n">
-        <v>188.3002570548813</v>
+        <v>289.5229433416807</v>
       </c>
       <c r="K29" t="n">
-        <v>589.1617409747914</v>
+        <v>635.8339286123886</v>
       </c>
       <c r="L29" t="n">
-        <v>1124.398563112685</v>
+        <v>1171.070750750283</v>
       </c>
       <c r="M29" t="n">
-        <v>1714.695259465835</v>
+        <v>1761.367447103432</v>
       </c>
       <c r="N29" t="n">
-        <v>2291.634856218756</v>
+        <v>2338.307043856353</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.820541993613</v>
+        <v>2836.49272963121</v>
       </c>
       <c r="P29" t="n">
-        <v>3197.684504418835</v>
+        <v>3244.356692056433</v>
       </c>
       <c r="Q29" t="n">
-        <v>3452.277944971439</v>
+        <v>3498.950132609038</v>
       </c>
       <c r="R29" t="n">
         <v>3498.950132609038</v>
@@ -6491,22 +6491,22 @@
         <v>3427.688642772757</v>
       </c>
       <c r="T29" t="n">
-        <v>3309.045291316488</v>
+        <v>3309.045291316487</v>
       </c>
       <c r="U29" t="n">
-        <v>3157.482421088614</v>
+        <v>3157.482421088612</v>
       </c>
       <c r="V29" t="n">
-        <v>2923.781063816306</v>
+        <v>2923.781063816305</v>
       </c>
       <c r="W29" t="n">
-        <v>2664.524050505658</v>
+        <v>2664.524050505657</v>
       </c>
       <c r="X29" t="n">
-        <v>2385.771826858903</v>
+        <v>2385.771826858901</v>
       </c>
       <c r="Y29" t="n">
-        <v>2095.507888266492</v>
+        <v>2095.507888266491</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>225.1632438985691</v>
       </c>
       <c r="H30" t="n">
-        <v>128.1029486358869</v>
+        <v>128.1029486358868</v>
       </c>
       <c r="I30" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218075</v>
       </c>
       <c r="J30" t="n">
-        <v>157.8226379963185</v>
+        <v>69.97900265218075</v>
       </c>
       <c r="K30" t="n">
-        <v>434.4680213236838</v>
+        <v>69.97900265218075</v>
       </c>
       <c r="L30" t="n">
-        <v>863.6953557278239</v>
+        <v>499.2063370563208</v>
       </c>
       <c r="M30" t="n">
-        <v>1422.719924530437</v>
+        <v>1058.230905858934</v>
       </c>
       <c r="N30" t="n">
         <v>1535.351391628657</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>436.7240136526761</v>
+        <v>436.7240136526764</v>
       </c>
       <c r="C31" t="n">
-        <v>370.3859609461077</v>
+        <v>370.385960946108</v>
       </c>
       <c r="D31" t="n">
-        <v>320.5919846056216</v>
+        <v>320.5919846056219</v>
       </c>
       <c r="E31" t="n">
-        <v>271.8608871986917</v>
+        <v>271.860887198692</v>
       </c>
       <c r="F31" t="n">
-        <v>222.65814905622</v>
+        <v>222.6581490562204</v>
       </c>
       <c r="G31" t="n">
-        <v>157.2661078719722</v>
+        <v>157.2661078719726</v>
       </c>
       <c r="H31" t="n">
         <v>103.3922451429574</v>
       </c>
       <c r="I31" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218075</v>
       </c>
       <c r="J31" t="n">
-        <v>129.6483480513009</v>
+        <v>129.6483480513007</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9188295857276</v>
+        <v>292.9188295857274</v>
       </c>
       <c r="L31" t="n">
-        <v>531.1466200852902</v>
+        <v>531.14662008529</v>
       </c>
       <c r="M31" t="n">
-        <v>788.73942628482</v>
+        <v>788.7394262848204</v>
       </c>
       <c r="N31" t="n">
         <v>1045.848558006488</v>
       </c>
       <c r="O31" t="n">
-        <v>1280.139054283217</v>
+        <v>1280.139054283218</v>
       </c>
       <c r="P31" t="n">
-        <v>1473.940064221448</v>
+        <v>1473.940064221449</v>
       </c>
       <c r="Q31" t="n">
-        <v>1557.892620620142</v>
+        <v>1557.892620620143</v>
       </c>
       <c r="R31" t="n">
         <v>1522.880250497931</v>
       </c>
       <c r="S31" t="n">
-        <v>1416.801573925745</v>
+        <v>1416.801573925746</v>
       </c>
       <c r="T31" t="n">
-        <v>1287.967824751275</v>
+        <v>1287.967824751276</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.069127014825</v>
+        <v>1104.069127014826</v>
       </c>
       <c r="V31" t="n">
-        <v>946.6117394049991</v>
+        <v>946.6117394049998</v>
       </c>
       <c r="W31" t="n">
-        <v>763.7332547541494</v>
+        <v>763.7332547541502</v>
       </c>
       <c r="X31" t="n">
-        <v>635.7587074812764</v>
+        <v>635.7587074812772</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.0014655053047</v>
+        <v>517.001465505305</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1804.742265580223</v>
+        <v>1804.742265580222</v>
       </c>
       <c r="C32" t="n">
-        <v>1526.086423744782</v>
+        <v>1526.086423744781</v>
       </c>
       <c r="D32" t="n">
         <v>1256.540375803756</v>
       </c>
       <c r="E32" t="n">
-        <v>965.0325727416143</v>
+        <v>965.0325727416138</v>
       </c>
       <c r="F32" t="n">
-        <v>654.1592988835358</v>
+        <v>654.1592988835354</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8900944992222</v>
+        <v>341.8900944992217</v>
       </c>
       <c r="H32" t="n">
-        <v>118.0497339865556</v>
+        <v>118.0497339865555</v>
       </c>
       <c r="I32" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218074</v>
       </c>
       <c r="J32" t="n">
         <v>289.5229433416806</v>
       </c>
       <c r="K32" t="n">
-        <v>700.3117362341324</v>
+        <v>700.3117362341322</v>
       </c>
       <c r="L32" t="n">
         <v>1235.548558372026</v>
       </c>
       <c r="M32" t="n">
-        <v>1825.845254725176</v>
+        <v>1724.622568438376</v>
       </c>
       <c r="N32" t="n">
-        <v>2402.784851478097</v>
+        <v>2301.562165191297</v>
       </c>
       <c r="O32" t="n">
-        <v>2900.970537252953</v>
+        <v>2799.747850966154</v>
       </c>
       <c r="P32" t="n">
-        <v>3298.907190705634</v>
+        <v>3207.611813391376</v>
       </c>
       <c r="Q32" t="n">
         <v>3452.277944971439</v>
       </c>
       <c r="R32" t="n">
-        <v>3498.950132609038</v>
+        <v>3498.950132609037</v>
       </c>
       <c r="S32" t="n">
-        <v>3427.688642772757</v>
+        <v>3427.688642772756</v>
       </c>
       <c r="T32" t="n">
-        <v>3309.045291316487</v>
+        <v>3309.045291316486</v>
       </c>
       <c r="U32" t="n">
-        <v>3157.482421088613</v>
+        <v>3157.482421088612</v>
       </c>
       <c r="V32" t="n">
-        <v>2923.781063816305</v>
+        <v>2923.781063816304</v>
       </c>
       <c r="W32" t="n">
-        <v>2664.524050505657</v>
+        <v>2664.524050505656</v>
       </c>
       <c r="X32" t="n">
-        <v>2385.771826858902</v>
+        <v>2385.771826858901</v>
       </c>
       <c r="Y32" t="n">
-        <v>2095.507888266491</v>
+        <v>2095.50788826649</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>225.1632438985691</v>
       </c>
       <c r="H33" t="n">
-        <v>128.1029486358869</v>
+        <v>128.1029486358868</v>
       </c>
       <c r="I33" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218074</v>
       </c>
       <c r="J33" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218074</v>
       </c>
       <c r="K33" t="n">
         <v>346.624385979546</v>
       </c>
       <c r="L33" t="n">
-        <v>775.8517203836861</v>
+        <v>775.851720383686</v>
       </c>
       <c r="M33" t="n">
         <v>1334.876289186299</v>
       </c>
       <c r="N33" t="n">
-        <v>1535.351391628657</v>
+        <v>1922.091477902864</v>
       </c>
       <c r="O33" t="n">
-        <v>1997.030335938272</v>
+        <v>2192.078066292841</v>
       </c>
       <c r="P33" t="n">
-        <v>2354.889272894425</v>
+        <v>2549.937003248993</v>
       </c>
       <c r="Q33" t="n">
         <v>2549.937003248993</v>
@@ -6844,28 +6844,28 @@
         <v>271.8608871986918</v>
       </c>
       <c r="F34" t="n">
-        <v>222.6581490562201</v>
+        <v>222.6581490562202</v>
       </c>
       <c r="G34" t="n">
-        <v>157.2661078719723</v>
+        <v>157.2661078719724</v>
       </c>
       <c r="H34" t="n">
-        <v>103.3922451429574</v>
+        <v>103.3922451429576</v>
       </c>
       <c r="I34" t="n">
-        <v>69.97900265218077</v>
+        <v>69.97900265218074</v>
       </c>
       <c r="J34" t="n">
-        <v>129.6483480513009</v>
+        <v>129.6483480513007</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9188295857275</v>
+        <v>292.9188295857274</v>
       </c>
       <c r="L34" t="n">
-        <v>531.1466200852901</v>
+        <v>531.14662008529</v>
       </c>
       <c r="M34" t="n">
-        <v>788.7394262848204</v>
+        <v>788.7394262848202</v>
       </c>
       <c r="N34" t="n">
         <v>1045.848558006488</v>
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1351.185748778519</v>
+        <v>1351.18574877852</v>
       </c>
       <c r="C35" t="n">
         <v>1136.882935373483</v>
       </c>
       <c r="D35" t="n">
-        <v>931.6899158628623</v>
+        <v>931.689915862863</v>
       </c>
       <c r="E35" t="n">
-        <v>704.5351412311252</v>
+        <v>704.5351412311263</v>
       </c>
       <c r="F35" t="n">
-        <v>458.0148958034517</v>
+        <v>458.0148958034528</v>
       </c>
       <c r="G35" t="n">
         <v>210.0987198495432</v>
       </c>
       <c r="H35" t="n">
-        <v>50.61138776728191</v>
+        <v>50.6113877672819</v>
       </c>
       <c r="I35" t="n">
-        <v>50.61138776728191</v>
+        <v>50.6113877672819</v>
       </c>
       <c r="J35" t="n">
-        <v>168.9326421699824</v>
+        <v>50.6113877672819</v>
       </c>
       <c r="K35" t="n">
-        <v>274.7893020882433</v>
+        <v>360.1774943729343</v>
       </c>
       <c r="L35" t="n">
-        <v>708.8034379393379</v>
+        <v>794.1916302240288</v>
       </c>
       <c r="M35" t="n">
-        <v>1197.877448005688</v>
+        <v>1283.265640290379</v>
       </c>
       <c r="N35" t="n">
-        <v>1673.59435847181</v>
+        <v>1758.982550756501</v>
       </c>
       <c r="O35" t="n">
-        <v>2070.557357959867</v>
+        <v>2070.557357959866</v>
       </c>
       <c r="P35" t="n">
-        <v>2377.19863409829</v>
+        <v>2377.198634098289</v>
       </c>
       <c r="Q35" t="n">
-        <v>2530.569388364096</v>
+        <v>2530.569388364095</v>
       </c>
       <c r="R35" t="n">
-        <v>2530.569388364096</v>
+        <v>2530.569388364095</v>
       </c>
       <c r="S35" t="n">
-        <v>2523.66092695822</v>
+        <v>2523.660926958219</v>
       </c>
       <c r="T35" t="n">
         <v>2469.370603932355</v>
       </c>
       <c r="U35" t="n">
-        <v>2382.160762134884</v>
+        <v>2382.160762134885</v>
       </c>
       <c r="V35" t="n">
-        <v>2212.812433292981</v>
+        <v>2212.812433292982</v>
       </c>
       <c r="W35" t="n">
         <v>2017.908448412739</v>
@@ -6980,7 +6980,7 @@
         <v>1803.509253196388</v>
       </c>
       <c r="Y35" t="n">
-        <v>1577.598343034382</v>
+        <v>1577.598343034383</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>108.735333750988</v>
       </c>
       <c r="I36" t="n">
-        <v>50.61138776728191</v>
+        <v>50.6113877672819</v>
       </c>
       <c r="J36" t="n">
-        <v>50.61138776728191</v>
+        <v>138.4550231114196</v>
       </c>
       <c r="K36" t="n">
-        <v>50.61138776728191</v>
+        <v>415.1004064387849</v>
       </c>
       <c r="L36" t="n">
-        <v>479.838722171422</v>
+        <v>727.6029561807325</v>
       </c>
       <c r="M36" t="n">
-        <v>1038.863290974035</v>
+        <v>1286.627524983345</v>
       </c>
       <c r="N36" t="n">
-        <v>1626.0784796906</v>
+        <v>1873.842713699911</v>
       </c>
       <c r="O36" t="n">
-        <v>2087.757424000215</v>
+        <v>2335.521658009526</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.616360956368</v>
+        <v>2335.521658009526</v>
       </c>
       <c r="Q36" t="n">
         <v>2530.569388364094</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.63542479728838</v>
+        <v>53.63542479728831</v>
       </c>
       <c r="C37" t="n">
-        <v>51.65040052112482</v>
+        <v>51.65040052112478</v>
       </c>
       <c r="D37" t="n">
-        <v>51.65040052112482</v>
+        <v>51.65040052112478</v>
       </c>
       <c r="E37" t="n">
-        <v>51.65040052112482</v>
+        <v>51.65040052112478</v>
       </c>
       <c r="F37" t="n">
-        <v>51.65040052112482</v>
+        <v>51.65040052112478</v>
       </c>
       <c r="G37" t="n">
-        <v>50.61138776728191</v>
+        <v>50.6113877672819</v>
       </c>
       <c r="H37" t="n">
-        <v>50.61138776728191</v>
+        <v>50.6113877672819</v>
       </c>
       <c r="I37" t="n">
-        <v>50.61138776728191</v>
+        <v>50.6113877672819</v>
       </c>
       <c r="J37" t="n">
-        <v>50.61138776728191</v>
+        <v>50.6113877672819</v>
       </c>
       <c r="K37" t="n">
-        <v>112.6591830149092</v>
+        <v>112.6591830149091</v>
       </c>
       <c r="L37" t="n">
         <v>249.6642872276724</v>
@@ -7114,31 +7114,31 @@
         <v>787.5669862166336</v>
       </c>
       <c r="Q37" t="n">
-        <v>769.9462027372888</v>
+        <v>787.5669862166336</v>
       </c>
       <c r="R37" t="n">
-        <v>769.9462027372888</v>
+        <v>787.5669862166336</v>
       </c>
       <c r="S37" t="n">
-        <v>728.2205545955084</v>
+        <v>745.8413380748532</v>
       </c>
       <c r="T37" t="n">
-        <v>518.7610653134577</v>
+        <v>681.3606173307876</v>
       </c>
       <c r="U37" t="n">
-        <v>399.2153960074129</v>
+        <v>561.8149480247428</v>
       </c>
       <c r="V37" t="n">
-        <v>306.1110368279917</v>
+        <v>468.7105888453215</v>
       </c>
       <c r="W37" t="n">
-        <v>187.5855806075469</v>
+        <v>350.1851326248768</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9640617650788</v>
+        <v>286.5636137824088</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.55984821951206</v>
+        <v>69.55984821951196</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1351.185748778518</v>
+        <v>1351.185748778519</v>
       </c>
       <c r="C38" t="n">
         <v>1136.882935373482</v>
       </c>
       <c r="D38" t="n">
-        <v>931.6899158628617</v>
+        <v>931.6899158628621</v>
       </c>
       <c r="E38" t="n">
-        <v>704.5351412311247</v>
+        <v>704.5351412311252</v>
       </c>
       <c r="F38" t="n">
-        <v>458.0148958034511</v>
+        <v>458.0148958034515</v>
       </c>
       <c r="G38" t="n">
         <v>210.0987198495432</v>
@@ -7172,25 +7172,25 @@
         <v>50.6113877672819</v>
       </c>
       <c r="J38" t="n">
-        <v>118.5939497483953</v>
+        <v>50.6113877672819</v>
       </c>
       <c r="K38" t="n">
-        <v>428.1600563540478</v>
+        <v>360.1774943729343</v>
       </c>
       <c r="L38" t="n">
-        <v>862.1741922051423</v>
+        <v>794.1916302240288</v>
       </c>
       <c r="M38" t="n">
-        <v>1351.248202271493</v>
+        <v>1283.265640290379</v>
       </c>
       <c r="N38" t="n">
-        <v>1826.965112737614</v>
+        <v>1758.982550756501</v>
       </c>
       <c r="O38" t="n">
-        <v>2223.928112225672</v>
+        <v>2070.557357959867</v>
       </c>
       <c r="P38" t="n">
-        <v>2530.569388364095</v>
+        <v>2377.19863409829</v>
       </c>
       <c r="Q38" t="n">
         <v>2530.569388364095</v>
@@ -7202,7 +7202,7 @@
         <v>2523.660926958219</v>
       </c>
       <c r="T38" t="n">
-        <v>2469.370603932354</v>
+        <v>2469.370603932355</v>
       </c>
       <c r="U38" t="n">
         <v>2382.160762134883</v>
@@ -7214,7 +7214,7 @@
         <v>2017.908448412738</v>
       </c>
       <c r="X38" t="n">
-        <v>1803.509253196387</v>
+        <v>1803.509253196388</v>
       </c>
       <c r="Y38" t="n">
         <v>1577.598343034382</v>
@@ -7242,7 +7242,7 @@
         <v>334.2261797717388</v>
       </c>
       <c r="G39" t="n">
-        <v>205.7956290136704</v>
+        <v>205.7956290136707</v>
       </c>
       <c r="H39" t="n">
         <v>108.735333750988</v>
@@ -7251,19 +7251,19 @@
         <v>50.6113877672819</v>
       </c>
       <c r="J39" t="n">
-        <v>50.6113877672819</v>
+        <v>138.4550231114196</v>
       </c>
       <c r="K39" t="n">
-        <v>327.2567710946471</v>
+        <v>415.1004064387849</v>
       </c>
       <c r="L39" t="n">
-        <v>756.4841054987871</v>
+        <v>844.327740842925</v>
       </c>
       <c r="M39" t="n">
-        <v>1315.5086743014</v>
+        <v>1403.352309645538</v>
       </c>
       <c r="N39" t="n">
-        <v>1515.983776743758</v>
+        <v>1515.983776743759</v>
       </c>
       <c r="O39" t="n">
         <v>1977.662721053374</v>
@@ -7309,16 +7309,16 @@
         <v>53.63542479728837</v>
       </c>
       <c r="C40" t="n">
-        <v>51.65040052112481</v>
+        <v>51.65040052112482</v>
       </c>
       <c r="D40" t="n">
-        <v>51.65040052112481</v>
+        <v>51.65040052112482</v>
       </c>
       <c r="E40" t="n">
-        <v>51.65040052112481</v>
+        <v>51.65040052112482</v>
       </c>
       <c r="F40" t="n">
-        <v>51.65040052112481</v>
+        <v>51.65040052112482</v>
       </c>
       <c r="G40" t="n">
         <v>50.6113877672819</v>
@@ -7333,7 +7333,7 @@
         <v>50.6113877672819</v>
       </c>
       <c r="K40" t="n">
-        <v>112.6591830149091</v>
+        <v>112.6591830149092</v>
       </c>
       <c r="L40" t="n">
         <v>249.6642872276724</v>
@@ -7351,13 +7351,13 @@
         <v>787.5669862166336</v>
       </c>
       <c r="Q40" t="n">
-        <v>787.5669862166336</v>
+        <v>769.9462027372888</v>
       </c>
       <c r="R40" t="n">
-        <v>787.5669862166336</v>
+        <v>769.9462027372888</v>
       </c>
       <c r="S40" t="n">
-        <v>583.2417860575233</v>
+        <v>728.2205545955084</v>
       </c>
       <c r="T40" t="n">
         <v>518.7610653134577</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1235.677252244445</v>
+        <v>1235.677252244443</v>
       </c>
       <c r="C41" t="n">
-        <v>1006.935876772649</v>
+        <v>1006.935876772647</v>
       </c>
       <c r="D41" t="n">
-        <v>787.3042951952691</v>
+        <v>787.3042951952675</v>
       </c>
       <c r="E41" t="n">
-        <v>545.7109584967727</v>
+        <v>545.7109584967707</v>
       </c>
       <c r="F41" t="n">
-        <v>486.8920199369705</v>
+        <v>486.8920199369718</v>
       </c>
       <c r="G41" t="n">
-        <v>224.5372819163026</v>
+        <v>224.5372819163028</v>
       </c>
       <c r="H41" t="n">
         <v>50.6113877672819</v>
@@ -7409,25 +7409,25 @@
         <v>50.6113877672819</v>
       </c>
       <c r="J41" t="n">
-        <v>118.5939497483953</v>
+        <v>168.9326421699824</v>
       </c>
       <c r="K41" t="n">
-        <v>428.1600563540478</v>
+        <v>274.789302088243</v>
       </c>
       <c r="L41" t="n">
-        <v>862.1741922051423</v>
+        <v>708.8034379393375</v>
       </c>
       <c r="M41" t="n">
-        <v>1351.248202271493</v>
+        <v>1197.877448005688</v>
       </c>
       <c r="N41" t="n">
-        <v>1826.965112737614</v>
+        <v>1673.594358471809</v>
       </c>
       <c r="O41" t="n">
-        <v>2223.928112225672</v>
+        <v>2070.557357959867</v>
       </c>
       <c r="P41" t="n">
-        <v>2530.569388364095</v>
+        <v>2377.19863409829</v>
       </c>
       <c r="Q41" t="n">
         <v>2530.569388364095</v>
@@ -7436,10 +7436,10 @@
         <v>2530.569388364095</v>
       </c>
       <c r="S41" t="n">
-        <v>2509.222364891459</v>
+        <v>2509.22236489146</v>
       </c>
       <c r="T41" t="n">
-        <v>2440.493479798835</v>
+        <v>2440.493479798836</v>
       </c>
       <c r="U41" t="n">
         <v>2338.845075934606</v>
@@ -7451,10 +7451,10 @@
         <v>1945.715638078942</v>
       </c>
       <c r="X41" t="n">
-        <v>1716.877880795832</v>
+        <v>1716.877880795831</v>
       </c>
       <c r="Y41" t="n">
-        <v>1476.528408567067</v>
+        <v>1476.528408567066</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>916.4902975338258</v>
+        <v>916.490297533826</v>
       </c>
       <c r="C42" t="n">
-        <v>754.7866247747806</v>
+        <v>754.7866247747808</v>
       </c>
       <c r="D42" t="n">
         <v>615.9479877649928</v>
@@ -7476,10 +7476,10 @@
         <v>468.919977821864</v>
       </c>
       <c r="F42" t="n">
-        <v>334.2261797717383</v>
+        <v>334.2261797717384</v>
       </c>
       <c r="G42" t="n">
-        <v>205.7956290136704</v>
+        <v>205.7956290136702</v>
       </c>
       <c r="H42" t="n">
         <v>108.735333750988</v>
@@ -7488,28 +7488,28 @@
         <v>50.6113877672819</v>
       </c>
       <c r="J42" t="n">
-        <v>50.6113877672819</v>
+        <v>138.4550231114196</v>
       </c>
       <c r="K42" t="n">
-        <v>327.2567710946471</v>
+        <v>138.4550231114196</v>
       </c>
       <c r="L42" t="n">
-        <v>756.4841054987871</v>
+        <v>567.6823575155597</v>
       </c>
       <c r="M42" t="n">
-        <v>928.768588027193</v>
+        <v>1126.706926318172</v>
       </c>
       <c r="N42" t="n">
-        <v>1515.983776743758</v>
+        <v>1713.922115034738</v>
       </c>
       <c r="O42" t="n">
-        <v>1977.662721053374</v>
+        <v>1977.662721053373</v>
       </c>
       <c r="P42" t="n">
-        <v>2335.521658009527</v>
+        <v>2335.521658009526</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.569388364095</v>
+        <v>2530.569388364094</v>
       </c>
       <c r="R42" t="n">
         <v>2489.284106911544</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.7264802805435</v>
+        <v>86.47194529617695</v>
       </c>
       <c r="C43" t="n">
-        <v>84.30289393762065</v>
+        <v>70.04835895325382</v>
       </c>
       <c r="D43" t="n">
-        <v>84.30289393762065</v>
+        <v>70.04835895325382</v>
       </c>
       <c r="E43" t="n">
-        <v>70.04835895325336</v>
+        <v>70.04835895325382</v>
       </c>
       <c r="F43" t="n">
-        <v>70.04835895325336</v>
+        <v>70.04835895325382</v>
       </c>
       <c r="G43" t="n">
-        <v>54.57078413265111</v>
+        <v>54.57078413265135</v>
       </c>
       <c r="H43" t="n">
         <v>50.6113877672819</v>
@@ -7570,7 +7570,7 @@
         <v>50.6113877672819</v>
       </c>
       <c r="K43" t="n">
-        <v>112.6591830149091</v>
+        <v>112.6591830149092</v>
       </c>
       <c r="L43" t="n">
         <v>249.6642872276724</v>
@@ -7594,25 +7594,25 @@
         <v>787.5669862166336</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4027760080938</v>
+        <v>731.4027760080936</v>
       </c>
       <c r="T43" t="n">
-        <v>652.4834931972689</v>
+        <v>652.4834931972684</v>
       </c>
       <c r="U43" t="n">
-        <v>518.4992618244647</v>
+        <v>504.2447268400993</v>
       </c>
       <c r="V43" t="n">
-        <v>410.9563405782841</v>
+        <v>396.7018055939185</v>
       </c>
       <c r="W43" t="n">
-        <v>277.9923222910801</v>
+        <v>263.7377873067142</v>
       </c>
       <c r="X43" t="n">
-        <v>199.9322413818527</v>
+        <v>185.6777063974865</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.0894657695266</v>
+        <v>116.8349307851602</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1325.753160809704</v>
+        <v>1235.677252244443</v>
       </c>
       <c r="C44" t="n">
-        <v>1097.011785337909</v>
+        <v>1209.075745707281</v>
       </c>
       <c r="D44" t="n">
-        <v>877.3802037605294</v>
+        <v>989.4441641299011</v>
       </c>
       <c r="E44" t="n">
-        <v>635.7868670620326</v>
+        <v>747.8508274314045</v>
       </c>
       <c r="F44" t="n">
-        <v>374.8280595675997</v>
+        <v>486.8920199369713</v>
       </c>
       <c r="G44" t="n">
-        <v>112.4733215469323</v>
+        <v>224.5372819163028</v>
       </c>
       <c r="H44" t="n">
         <v>50.6113877672819</v>
@@ -7646,25 +7646,25 @@
         <v>50.6113877672819</v>
       </c>
       <c r="J44" t="n">
-        <v>50.6113877672819</v>
+        <v>168.9326421699824</v>
       </c>
       <c r="K44" t="n">
-        <v>274.7893020882424</v>
+        <v>478.4987487756348</v>
       </c>
       <c r="L44" t="n">
-        <v>708.803437939337</v>
+        <v>912.5128846267294</v>
       </c>
       <c r="M44" t="n">
-        <v>1197.877448005687</v>
+        <v>1401.58689469308</v>
       </c>
       <c r="N44" t="n">
         <v>1673.594358471809</v>
       </c>
       <c r="O44" t="n">
-        <v>2070.557357959866</v>
+        <v>2070.557357959867</v>
       </c>
       <c r="P44" t="n">
-        <v>2377.198634098289</v>
+        <v>2377.19863409829</v>
       </c>
       <c r="Q44" t="n">
         <v>2530.569388364095</v>
@@ -7673,25 +7673,25 @@
         <v>2530.569388364095</v>
       </c>
       <c r="S44" t="n">
-        <v>2530.569388364095</v>
+        <v>2509.22236489146</v>
       </c>
       <c r="T44" t="n">
-        <v>2530.569388364095</v>
+        <v>2440.493479798835</v>
       </c>
       <c r="U44" t="n">
-        <v>2428.920984499866</v>
+        <v>2338.845075934606</v>
       </c>
       <c r="V44" t="n">
-        <v>2245.134093591204</v>
+        <v>2155.058185025944</v>
       </c>
       <c r="W44" t="n">
-        <v>2035.791546644202</v>
+        <v>1945.715638078941</v>
       </c>
       <c r="X44" t="n">
-        <v>1806.953789361092</v>
+        <v>1716.877880795831</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.604317132327</v>
+        <v>1476.528408567066</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>916.490297533826</v>
+        <v>916.4902975338263</v>
       </c>
       <c r="C45" t="n">
-        <v>754.7866247747808</v>
+        <v>754.7866247747811</v>
       </c>
       <c r="D45" t="n">
-        <v>615.9479877649928</v>
+        <v>615.9479877649933</v>
       </c>
       <c r="E45" t="n">
-        <v>468.919977821864</v>
+        <v>468.9199778218644</v>
       </c>
       <c r="F45" t="n">
-        <v>334.2261797717384</v>
+        <v>334.2261797717388</v>
       </c>
       <c r="G45" t="n">
-        <v>205.7956290136702</v>
+        <v>205.7956290136707</v>
       </c>
       <c r="H45" t="n">
         <v>108.735333750988</v>
@@ -7728,31 +7728,31 @@
         <v>138.4550231114196</v>
       </c>
       <c r="K45" t="n">
-        <v>138.4550231114196</v>
+        <v>415.1004064387849</v>
       </c>
       <c r="L45" t="n">
-        <v>567.6823575155597</v>
+        <v>844.327740842925</v>
       </c>
       <c r="M45" t="n">
-        <v>1126.706926318172</v>
+        <v>928.7685880271935</v>
       </c>
       <c r="N45" t="n">
-        <v>1713.922115034738</v>
+        <v>1515.983776743759</v>
       </c>
       <c r="O45" t="n">
-        <v>2175.601059344353</v>
+        <v>1977.662721053374</v>
       </c>
       <c r="P45" t="n">
-        <v>2335.521658009526</v>
+        <v>2335.521658009527</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.569388364094</v>
+        <v>2530.569388364095</v>
       </c>
       <c r="R45" t="n">
         <v>2489.284106911544</v>
       </c>
       <c r="S45" t="n">
-        <v>2342.018895981175</v>
+        <v>2342.018895981176</v>
       </c>
       <c r="T45" t="n">
         <v>2154.53473658548</v>
@@ -7761,10 +7761,10 @@
         <v>1936.05954610607</v>
       </c>
       <c r="V45" t="n">
-        <v>1707.663923554403</v>
+        <v>1707.663923554404</v>
       </c>
       <c r="W45" t="n">
-        <v>1466.348054787713</v>
+        <v>1466.348054787714</v>
       </c>
       <c r="X45" t="n">
         <v>1268.431066665508</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.47194529617624</v>
+        <v>86.47194529617695</v>
       </c>
       <c r="C46" t="n">
-        <v>70.04835895325336</v>
+        <v>70.04835895325382</v>
       </c>
       <c r="D46" t="n">
-        <v>70.04835895325336</v>
+        <v>70.04835895325382</v>
       </c>
       <c r="E46" t="n">
-        <v>70.04835895325336</v>
+        <v>70.04835895325382</v>
       </c>
       <c r="F46" t="n">
-        <v>70.04835895325336</v>
+        <v>70.04835895325382</v>
       </c>
       <c r="G46" t="n">
-        <v>54.57078413265111</v>
+        <v>54.57078413265135</v>
       </c>
       <c r="H46" t="n">
         <v>50.6113877672819</v>
@@ -7807,7 +7807,7 @@
         <v>50.6113877672819</v>
       </c>
       <c r="K46" t="n">
-        <v>112.6591830149091</v>
+        <v>112.6591830149092</v>
       </c>
       <c r="L46" t="n">
         <v>249.6642872276724</v>
@@ -7825,31 +7825,31 @@
         <v>787.5669862166336</v>
       </c>
       <c r="Q46" t="n">
-        <v>787.5669862166336</v>
+        <v>773.3124512322689</v>
       </c>
       <c r="R46" t="n">
-        <v>787.5669862166336</v>
+        <v>773.3124512322689</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4027760080938</v>
+        <v>717.1482410237289</v>
       </c>
       <c r="T46" t="n">
-        <v>652.4834931972689</v>
+        <v>638.2289582129038</v>
       </c>
       <c r="U46" t="n">
-        <v>504.2447268400975</v>
+        <v>504.2447268400993</v>
       </c>
       <c r="V46" t="n">
-        <v>396.7018055939169</v>
+        <v>396.7018055939185</v>
       </c>
       <c r="W46" t="n">
-        <v>263.7377873067128</v>
+        <v>263.7377873067142</v>
       </c>
       <c r="X46" t="n">
-        <v>185.6777063974853</v>
+        <v>185.6777063974865</v>
       </c>
       <c r="Y46" t="n">
-        <v>116.8349307851593</v>
+        <v>116.8349307851602</v>
       </c>
     </row>
   </sheetData>
@@ -8693,7 +8693,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>239.4970472290629</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7957427402474</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0895340540322</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.18740115047315</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,19 +8775,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>314.0925267114593</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>45.67864707023789</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.08256460754527</v>
+        <v>162.3699316414581</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,7 +8927,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>117.9265046559906</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8936,7 +8936,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>420.0084238529005</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>121.0895340540323</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,19 +9003,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.18740115047316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>64.36502697759946</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>396.5143984011536</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>46.07217624196304</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9164,10 +9164,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>117.9265046559906</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>239.4970472290629</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.18740115047316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>64.36502697759946</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,10 +9252,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>243.0900856910217</v>
       </c>
       <c r="O18" t="n">
-        <v>500.1367400349608</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9401,7 +9401,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>117.9265046559914</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9416,10 +9416,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7957427402479</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0895340540323</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9483,19 +9483,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>48.52948484991106</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>46.07217624196304</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>270.4916528718468</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7957427402474</v>
+        <v>114.8757889364051</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0895340540323</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9717,16 +9717,16 @@
         <v>75.18740115047316</v>
       </c>
       <c r="K24" t="n">
-        <v>64.36502697759946</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>48.52948484991106</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>611.2608116218316</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.08256460754528</v>
+        <v>218.3214724885916</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.18740115047319</v>
+        <v>75.18740115047316</v>
       </c>
       <c r="K27" t="n">
-        <v>150.1761657732827</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>214.7700310828714</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.08256460754532</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>75.18740115047315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>64.36502697759943</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>143.7675900624326</v>
+        <v>511.9383159932434</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>232.4985348544909</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>318.3923727166784</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>76.08256460754528</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>100.3091811351096</v>
       </c>
       <c r="K35" t="n">
-        <v>215.6219184764622</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10598,7 +10598,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>408.7895363641026</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
@@ -10662,13 +10662,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>75.18740115047316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>64.36502697759946</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>364.1886260033934</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>52.52792553883467</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.8937034032281</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>168.9784356614868</v>
+        <v>100.3091811351096</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10835,13 +10835,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>408.7895363641031</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0895340540323</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>75.18740115047316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>232.4985348544914</v>
+        <v>143.7675900624333</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>168.9784356614868</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>215.6219184764619</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0895340540323</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,22 +11136,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.18740115047316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>64.36502697759946</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>214.7700310828717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>312.0832996143141</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>100.3091811351096</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>335.1383370650477</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>362.783883869527</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11376,13 +11376,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>64.36502697759946</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>126.0390862908138</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11391,7 +11391,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>214.0638837864839</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.8579664594052</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>275.869283417087</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>152.290466366497</v>
+        <v>181.0664964657574</v>
       </c>
       <c r="F11" t="n">
-        <v>307.7645411194976</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>309.1465123404705</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.6019569075396</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.59002402103106</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.3612992064866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.8579664594052</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.5927250315205</v>
       </c>
       <c r="F14" t="n">
-        <v>307.7645411194976</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>309.1465123404705</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.59002402103106</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>102.5837125523772</v>
       </c>
       <c r="X14" t="n">
-        <v>275.9647014102878</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>163.6870641626957</v>
+        <v>287.3612992064866</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.723066134218243e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.648459146963432e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>200.1184702452845</v>
+        <v>200.1184702452879</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>200.1184702452871</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>110.9433207656765</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.1335532379091</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>68.04159624169752</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>811182.5628670468</v>
+        <v>811182.5628670469</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>823209.1716710468</v>
+        <v>823209.1716710469</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803106.2901326304</v>
+        <v>803106.2901326302</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803106.2901326306</v>
+        <v>803106.2901326304</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>708435.8841442564</v>
+        <v>708435.8841442562</v>
       </c>
       <c r="C2" t="n">
-        <v>708435.8841442564</v>
+        <v>708435.8841442562</v>
       </c>
       <c r="D2" t="n">
-        <v>708435.8841442564</v>
+        <v>708435.8841442562</v>
       </c>
       <c r="E2" t="n">
         <v>633825.0112249444</v>
       </c>
       <c r="F2" t="n">
-        <v>633825.0112249436</v>
+        <v>633825.0112249433</v>
       </c>
       <c r="G2" t="n">
         <v>710052.2559571175</v>
       </c>
       <c r="H2" t="n">
+        <v>710052.2559571175</v>
+      </c>
+      <c r="I2" t="n">
+        <v>710052.2559571175</v>
+      </c>
+      <c r="J2" t="n">
+        <v>710052.2559571177</v>
+      </c>
+      <c r="K2" t="n">
+        <v>710052.2559571178</v>
+      </c>
+      <c r="L2" t="n">
+        <v>710052.2559571175</v>
+      </c>
+      <c r="M2" t="n">
+        <v>710052.2559571171</v>
+      </c>
+      <c r="N2" t="n">
         <v>710052.2559571173</v>
       </c>
-      <c r="I2" t="n">
-        <v>710052.2559571177</v>
-      </c>
-      <c r="J2" t="n">
-        <v>710052.2559571178</v>
-      </c>
-      <c r="K2" t="n">
-        <v>710052.2559571175</v>
-      </c>
-      <c r="L2" t="n">
-        <v>710052.2559571178</v>
-      </c>
-      <c r="M2" t="n">
-        <v>710052.2559571174</v>
-      </c>
-      <c r="N2" t="n">
-        <v>710052.2559571175</v>
-      </c>
       <c r="O2" t="n">
-        <v>695317.5329929579</v>
+        <v>695317.5329929577</v>
       </c>
       <c r="P2" t="n">
-        <v>695317.5329929579</v>
+        <v>695317.5329929574</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>373497.0682030779</v>
+        <v>373497.0682030778</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56439.09995033456</v>
+        <v>56439.0999503346</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95155.32545678649</v>
+        <v>95155.32545678636</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56439.09995033455</v>
+        <v>56439.09995033458</v>
       </c>
       <c r="M3" t="n">
         <v>142144.8838906125</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13921.66902353901</v>
+        <v>13921.66902353881</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>410681.9044354911</v>
       </c>
       <c r="E4" t="n">
-        <v>286501.9585380715</v>
+        <v>286501.9585380714</v>
       </c>
       <c r="F4" t="n">
-        <v>286501.9585380715</v>
+        <v>286501.9585380714</v>
       </c>
       <c r="G4" t="n">
         <v>333303.5506318428</v>
@@ -26439,25 +26439,25 @@
         <v>333303.5506318428</v>
       </c>
       <c r="J4" t="n">
-        <v>330547.1322644399</v>
+        <v>330547.1322644398</v>
       </c>
       <c r="K4" t="n">
         <v>330547.1322644398</v>
       </c>
       <c r="L4" t="n">
-        <v>330547.1322644398</v>
+        <v>330547.1322644397</v>
       </c>
       <c r="M4" t="n">
         <v>331719.4317171453</v>
       </c>
       <c r="N4" t="n">
-        <v>331719.4317171453</v>
+        <v>331719.4317171454</v>
       </c>
       <c r="O4" t="n">
-        <v>322627.4374084306</v>
+        <v>322627.4374084304</v>
       </c>
       <c r="P4" t="n">
-        <v>322627.4374084306</v>
+        <v>322627.4374084304</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48549.72218544597</v>
+        <v>48549.72218544598</v>
       </c>
       <c r="F5" t="n">
-        <v>48549.72218544596</v>
+        <v>48549.72218544598</v>
       </c>
       <c r="G5" t="n">
-        <v>54480.69555260181</v>
+        <v>54480.69555260183</v>
       </c>
       <c r="H5" t="n">
-        <v>54480.69555260181</v>
+        <v>54480.69555260183</v>
       </c>
       <c r="I5" t="n">
-        <v>54480.69555260181</v>
+        <v>54480.69555260183</v>
       </c>
       <c r="J5" t="n">
         <v>64769.23254610221</v>
@@ -26497,7 +26497,7 @@
         <v>64769.23254610221</v>
       </c>
       <c r="L5" t="n">
-        <v>64769.23254610221</v>
+        <v>64769.2325461022</v>
       </c>
       <c r="M5" t="n">
         <v>55405.83903322364</v>
@@ -26506,10 +26506,10 @@
         <v>55405.83903322364</v>
       </c>
       <c r="O5" t="n">
-        <v>54204.14191357715</v>
+        <v>54204.14191357713</v>
       </c>
       <c r="P5" t="n">
-        <v>54204.14191357715</v>
+        <v>54204.14191357713</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264126.3797087653</v>
+        <v>264122.011136298</v>
       </c>
       <c r="C6" t="n">
-        <v>264126.3797087652</v>
+        <v>264122.011136298</v>
       </c>
       <c r="D6" t="n">
-        <v>264126.3797087653</v>
+        <v>264122.011136298</v>
       </c>
       <c r="E6" t="n">
-        <v>-74723.73770165097</v>
+        <v>-74929.75728200802</v>
       </c>
       <c r="F6" t="n">
-        <v>298773.3305014261</v>
+        <v>298567.3109210688</v>
       </c>
       <c r="G6" t="n">
-        <v>265828.9098223384</v>
+        <v>265828.9098223383</v>
       </c>
       <c r="H6" t="n">
-        <v>322268.0097726727</v>
+        <v>322268.009772673</v>
       </c>
       <c r="I6" t="n">
-        <v>322268.009772673</v>
+        <v>322268.0097726729</v>
       </c>
       <c r="J6" t="n">
-        <v>219580.5656897892</v>
+        <v>219580.5656897893</v>
       </c>
       <c r="K6" t="n">
-        <v>314735.8911465756</v>
+        <v>314735.8911465758</v>
       </c>
       <c r="L6" t="n">
-        <v>258296.7911962412</v>
+        <v>258296.7911962411</v>
       </c>
       <c r="M6" t="n">
-        <v>180782.1013161361</v>
+        <v>180782.1013161356</v>
       </c>
       <c r="N6" t="n">
-        <v>322926.9852067486</v>
+        <v>322926.9852067483</v>
       </c>
       <c r="O6" t="n">
-        <v>304564.284647411</v>
+        <v>304524.4610718326</v>
       </c>
       <c r="P6" t="n">
-        <v>318485.9536709501</v>
+        <v>318446.130095371</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>172.7940126013519</v>
       </c>
       <c r="H2" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="I2" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="J2" t="n">
         <v>102.2451376634337</v>
@@ -26722,10 +26722,10 @@
         <v>165.9546358095346</v>
       </c>
       <c r="O2" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="P2" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.1350482668639</v>
+        <v>137.1350482668638</v>
       </c>
       <c r="F3" t="n">
         <v>137.1350482668638</v>
@@ -26759,10 +26759,10 @@
         <v>137.1350482668638</v>
       </c>
       <c r="J3" t="n">
-        <v>137.1350482668637</v>
+        <v>137.1350482668638</v>
       </c>
       <c r="K3" t="n">
-        <v>137.1350482668638</v>
+        <v>137.1350482668639</v>
       </c>
       <c r="L3" t="n">
         <v>137.1350482668638</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>607.969270641466</v>
+        <v>607.9692706414662</v>
       </c>
       <c r="F4" t="n">
-        <v>607.969270641466</v>
+        <v>607.9692706414662</v>
       </c>
       <c r="G4" t="n">
-        <v>607.969270641466</v>
+        <v>607.9692706414662</v>
       </c>
       <c r="H4" t="n">
-        <v>607.969270641466</v>
+        <v>607.9692706414662</v>
       </c>
       <c r="I4" t="n">
-        <v>607.9692706414659</v>
+        <v>607.9692706414662</v>
       </c>
       <c r="J4" t="n">
-        <v>874.7375331522595</v>
+        <v>874.7375331522594</v>
       </c>
       <c r="K4" t="n">
-        <v>874.7375331522595</v>
+        <v>874.7375331522594</v>
       </c>
       <c r="L4" t="n">
-        <v>874.7375331522595</v>
+        <v>874.7375331522593</v>
       </c>
       <c r="M4" t="n">
-        <v>632.6423470910239</v>
+        <v>632.6423470910237</v>
       </c>
       <c r="N4" t="n">
-        <v>632.6423470910237</v>
+        <v>632.6423470910238</v>
       </c>
       <c r="O4" t="n">
-        <v>632.6423470910237</v>
+        <v>632.6423470910238</v>
       </c>
       <c r="P4" t="n">
-        <v>632.6423470910237</v>
+        <v>632.6423470910238</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.5488749379182</v>
+        <v>70.54887493791826</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.6962627255155</v>
+        <v>31.69626272551548</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54887493791819</v>
+        <v>70.54887493791823</v>
       </c>
       <c r="M2" t="n">
-        <v>63.70949814610091</v>
+        <v>63.7094981461009</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>17.40208627942376</v>
+        <v>17.40208627942351</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.1350482668639</v>
+        <v>137.1350482668638</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>607.969270641466</v>
+        <v>607.9692706414662</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>266.7682625107936</v>
+        <v>266.7682625107932</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>365.8740845802304</v>
+        <v>365.8740845802306</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.5488749379182</v>
+        <v>70.54887493791826</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.6962627255155</v>
+        <v>31.69626272551548</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>607.969270641466</v>
+        <v>607.9692706414662</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.10151378707145</v>
+        <v>55.10151378707148</v>
       </c>
       <c r="S11" t="n">
         <v>102.2451376634337</v>
@@ -28172,10 +28172,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>95.75127508544301</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>38.20856856157324</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.54270652386903</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28418,10 +28418,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>95.75127508544227</v>
       </c>
       <c r="H15" t="n">
-        <v>95.75127508544311</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28506,13 +28506,13 @@
         <v>102.2451376634337</v>
       </c>
       <c r="J16" t="n">
-        <v>102.245137663433</v>
+        <v>102.2451376634337</v>
       </c>
       <c r="K16" t="n">
         <v>102.2451376634337</v>
       </c>
       <c r="L16" t="n">
-        <v>102.2451376634337</v>
+        <v>102.2451376634343</v>
       </c>
       <c r="M16" t="n">
         <v>102.2451376634337</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>95.75127508544227</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.87242863802513</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>54.87884644741771</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28770,10 +28770,10 @@
         <v>136.9073840844228</v>
       </c>
       <c r="S19" t="n">
+        <v>126.9056577113021</v>
+      </c>
+      <c r="T19" t="n">
         <v>172.7940126013519</v>
-      </c>
-      <c r="T19" t="n">
-        <v>126.905657711302</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="C20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="D20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="E20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="F20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="G20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="H20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="I20" t="n">
         <v>149.8351616844647</v>
@@ -28849,25 +28849,25 @@
         <v>55.10151378707148</v>
       </c>
       <c r="S20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="T20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="U20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="V20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="W20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="X20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="Y20" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>38.2085685615733</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>57.54270652386903</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>95.75127508544261</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -29004,28 +29004,28 @@
         <v>17.44457564455142</v>
       </c>
       <c r="R22" t="n">
-        <v>136.9073840844228</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>91.01902919437293</v>
       </c>
       <c r="T22" t="n">
-        <v>126.9056577113018</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="U22" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="V22" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="W22" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="X22" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="C23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="D23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="E23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="F23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="G23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="H23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="I23" t="n">
         <v>149.8351616844647</v>
@@ -29089,22 +29089,22 @@
         <v>172.7940126013519</v>
       </c>
       <c r="T23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="U23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="V23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="W23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="X23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="Y23" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
     </row>
     <row r="24">
@@ -29126,13 +29126,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>54.87884644741867</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.75127508544224</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.87242863802513</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29241,28 +29241,28 @@
         <v>17.44457564455142</v>
       </c>
       <c r="R25" t="n">
-        <v>136.9073840844228</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="T25" t="n">
-        <v>126.9056577113018</v>
+        <v>91.01902919437288</v>
       </c>
       <c r="U25" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="V25" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="W25" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="X25" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.794012601352</v>
+        <v>172.7940126013519</v>
       </c>
     </row>
     <row r="26">
@@ -29299,13 +29299,13 @@
         <v>102.2451376634337</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>102.2451376634337</v>
       </c>
       <c r="L26" t="n">
         <v>102.2451376634337</v>
       </c>
       <c r="M26" t="n">
-        <v>102.2451376634337</v>
+        <v>92.21755284268352</v>
       </c>
       <c r="N26" t="n">
         <v>102.2451376634337</v>
@@ -29314,10 +29314,10 @@
         <v>102.2451376634337</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>102.2451376634337</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>92.21755284268497</v>
       </c>
       <c r="R26" t="n">
         <v>102.2451376634337</v>
@@ -29533,10 +29533,10 @@
         <v>102.2451376634337</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>102.2451376634337</v>
       </c>
       <c r="K29" t="n">
-        <v>92.2175528426846</v>
+        <v>37.11603905561162</v>
       </c>
       <c r="L29" t="n">
         <v>102.2451376634337</v>
@@ -29557,7 +29557,7 @@
         <v>102.2451376634337</v>
       </c>
       <c r="R29" t="n">
-        <v>102.2451376634337</v>
+        <v>55.10151378707145</v>
       </c>
       <c r="S29" t="n">
         <v>102.2451376634337</v>
@@ -29779,7 +29779,7 @@
         <v>102.2451376634337</v>
       </c>
       <c r="M32" t="n">
-        <v>102.2451376634337</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>102.2451376634337</v>
@@ -29788,10 +29788,10 @@
         <v>102.2451376634337</v>
       </c>
       <c r="P32" t="n">
-        <v>92.21755284268454</v>
+        <v>102.2451376634337</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>92.21755284268394</v>
       </c>
       <c r="R32" t="n">
         <v>102.2451376634337</v>
@@ -29928,7 +29928,7 @@
         <v>102.2451376634337</v>
       </c>
       <c r="J34" t="n">
-        <v>102.2451376634339</v>
+        <v>102.2451376634337</v>
       </c>
       <c r="K34" t="n">
         <v>102.2451376634337</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.10151378707147</v>
+        <v>55.10151378707148</v>
       </c>
       <c r="S35" t="n">
         <v>165.9546358095346</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.44457564455142</v>
       </c>
       <c r="R37" t="n">
         <v>136.9073840844228</v>
@@ -30195,7 +30195,7 @@
         <v>165.9546358095346</v>
       </c>
       <c r="T37" t="n">
-        <v>22.42565495692935</v>
+        <v>165.9546358095346</v>
       </c>
       <c r="U37" t="n">
         <v>165.9546358095346</v>
@@ -30210,7 +30210,7 @@
         <v>165.9546358095346</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.9546358095346</v>
+        <v>4.981079312377858</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.10151378707147</v>
+        <v>55.10151378707148</v>
       </c>
       <c r="S38" t="n">
         <v>165.9546358095346</v>
@@ -30423,16 +30423,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.44457564455141</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>136.9073840844228</v>
       </c>
       <c r="S40" t="n">
-        <v>4.981079312378057</v>
+        <v>165.9546358095346</v>
       </c>
       <c r="T40" t="n">
-        <v>165.9546358095346</v>
+        <v>22.42565495692935</v>
       </c>
       <c r="U40" t="n">
         <v>165.9546358095346</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="C41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="D41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="E41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="F41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="G41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="H41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="I41" t="n">
         <v>149.8351616844647</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.10151378707147</v>
+        <v>55.10151378707148</v>
       </c>
       <c r="S41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="T41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="U41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="V41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="W41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="X41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="Y41" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="C43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>136.3769344617707</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="H43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="I43" t="n">
         <v>135.3242477293026</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.44457564455141</v>
+        <v>17.44457564455142</v>
       </c>
       <c r="R43" t="n">
         <v>136.9073840844228</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6604593634428</v>
+        <v>137.5484697289215</v>
       </c>
       <c r="V43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="W43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="X43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="C44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="D44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="E44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="F44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="G44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="H44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="I44" t="n">
         <v>149.8351616844647</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.10151378707147</v>
+        <v>55.10151378707148</v>
       </c>
       <c r="S44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="T44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="U44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="V44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="W44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="X44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="Y44" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="C46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="H46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="I46" t="n">
         <v>135.3242477293026</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.44457564455141</v>
+        <v>3.332586010030386</v>
       </c>
       <c r="R46" t="n">
         <v>136.9073840844228</v>
       </c>
       <c r="S46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="T46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="U46" t="n">
-        <v>137.5484697289193</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="V46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="W46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="X46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.6604593634428</v>
+        <v>151.6604593634426</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5512966764497037</v>
+        <v>0.5512966764497034</v>
       </c>
       <c r="H11" t="n">
-        <v>5.645967087690529</v>
+        <v>5.645967087690526</v>
       </c>
       <c r="I11" t="n">
-        <v>21.25386511882722</v>
+        <v>21.25386511882721</v>
       </c>
       <c r="J11" t="n">
-        <v>46.79061629282308</v>
+        <v>46.79061629282305</v>
       </c>
       <c r="K11" t="n">
-        <v>70.12700460693905</v>
+        <v>70.12700460693901</v>
       </c>
       <c r="L11" t="n">
-        <v>86.99875026883669</v>
+        <v>86.99875026883663</v>
       </c>
       <c r="M11" t="n">
-        <v>96.8028725386491</v>
+        <v>96.80287253864904</v>
       </c>
       <c r="N11" t="n">
-        <v>98.36924422061183</v>
+        <v>98.36924422061176</v>
       </c>
       <c r="O11" t="n">
-        <v>92.88728789416508</v>
+        <v>92.88728789416503</v>
       </c>
       <c r="P11" t="n">
-        <v>79.27715119431301</v>
+        <v>79.27715119431296</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.53383896895798</v>
+        <v>59.53383896895794</v>
       </c>
       <c r="R11" t="n">
-        <v>34.63038985203373</v>
+        <v>34.63038985203371</v>
       </c>
       <c r="S11" t="n">
-        <v>12.56267301459764</v>
+        <v>12.56267301459763</v>
       </c>
       <c r="T11" t="n">
-        <v>2.413301201158579</v>
+        <v>2.413301201158577</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04410373411597628</v>
+        <v>0.04410373411597625</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2949697264608016</v>
+        <v>0.2949697264608014</v>
       </c>
       <c r="H12" t="n">
-        <v>2.848786568713531</v>
+        <v>2.84878656871353</v>
       </c>
       <c r="I12" t="n">
         <v>10.15575593297058</v>
       </c>
       <c r="J12" t="n">
-        <v>27.86817051619354</v>
+        <v>27.86817051619353</v>
       </c>
       <c r="K12" t="n">
-        <v>47.63114218906725</v>
+        <v>47.63114218906722</v>
       </c>
       <c r="L12" t="n">
-        <v>64.04594872123677</v>
+        <v>64.04594872123673</v>
       </c>
       <c r="M12" t="n">
-        <v>74.73860130544081</v>
+        <v>74.73860130544077</v>
       </c>
       <c r="N12" t="n">
-        <v>76.71670969034682</v>
+        <v>76.71670969034676</v>
       </c>
       <c r="O12" t="n">
-        <v>70.18080154087326</v>
+        <v>70.18080154087322</v>
       </c>
       <c r="P12" t="n">
-        <v>56.32628048530869</v>
+        <v>56.32628048530865</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.65262683734723</v>
+        <v>37.65262683734721</v>
       </c>
       <c r="R12" t="n">
-        <v>18.31399757797855</v>
+        <v>18.31399757797854</v>
       </c>
       <c r="S12" t="n">
-        <v>5.478933296322341</v>
+        <v>5.478933296322338</v>
       </c>
       <c r="T12" t="n">
-        <v>1.188934993936301</v>
+        <v>1.1889349939363</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01940590305663169</v>
+        <v>0.01940590305663168</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2472927099894267</v>
+        <v>0.2472927099894265</v>
       </c>
       <c r="H13" t="n">
-        <v>2.198657003360541</v>
+        <v>2.198657003360539</v>
       </c>
       <c r="I13" t="n">
-        <v>7.43676622404567</v>
+        <v>7.436766224045665</v>
       </c>
       <c r="J13" t="n">
-        <v>17.48359459625246</v>
+        <v>17.48359459625245</v>
       </c>
       <c r="K13" t="n">
-        <v>28.73091666968066</v>
+        <v>28.73091666968064</v>
       </c>
       <c r="L13" t="n">
-        <v>36.76568162879168</v>
+        <v>36.76568162879165</v>
       </c>
       <c r="M13" t="n">
-        <v>38.76425634861531</v>
+        <v>38.76425634861528</v>
       </c>
       <c r="N13" t="n">
-        <v>37.84252897501838</v>
+        <v>37.84252897501835</v>
       </c>
       <c r="O13" t="n">
-        <v>34.9537004992328</v>
+        <v>34.95370049923277</v>
       </c>
       <c r="P13" t="n">
-        <v>29.90892921544846</v>
+        <v>29.90892921544845</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.70739228829645</v>
+        <v>20.70739228829643</v>
       </c>
       <c r="R13" t="n">
         <v>11.11917948734276</v>
       </c>
       <c r="S13" t="n">
-        <v>4.309637500452098</v>
+        <v>4.309637500452095</v>
       </c>
       <c r="T13" t="n">
         <v>1.056614306318459</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01348869327215056</v>
+        <v>0.01348869327215055</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5512966764497027</v>
+        <v>0.5512966764497034</v>
       </c>
       <c r="H26" t="n">
-        <v>5.645967087690519</v>
+        <v>5.645967087690526</v>
       </c>
       <c r="I26" t="n">
-        <v>21.25386511882719</v>
+        <v>21.25386511882721</v>
       </c>
       <c r="J26" t="n">
-        <v>46.790616292823</v>
+        <v>46.79061629282305</v>
       </c>
       <c r="K26" t="n">
-        <v>70.12700460693893</v>
+        <v>70.12700460693901</v>
       </c>
       <c r="L26" t="n">
-        <v>86.99875026883655</v>
+        <v>86.99875026883663</v>
       </c>
       <c r="M26" t="n">
-        <v>96.80287253864894</v>
+        <v>96.80287253864904</v>
       </c>
       <c r="N26" t="n">
-        <v>98.36924422061166</v>
+        <v>98.36924422061176</v>
       </c>
       <c r="O26" t="n">
-        <v>92.88728789416493</v>
+        <v>92.88728789416503</v>
       </c>
       <c r="P26" t="n">
-        <v>79.27715119431288</v>
+        <v>79.27715119431296</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.53383896895788</v>
+        <v>59.53383896895794</v>
       </c>
       <c r="R26" t="n">
-        <v>34.63038985203367</v>
+        <v>34.63038985203371</v>
       </c>
       <c r="S26" t="n">
-        <v>12.56267301459761</v>
+        <v>12.56267301459763</v>
       </c>
       <c r="T26" t="n">
-        <v>2.413301201158575</v>
+        <v>2.413301201158577</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04410373411597621</v>
+        <v>0.04410373411597625</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2949697264608011</v>
+        <v>0.2949697264608014</v>
       </c>
       <c r="H27" t="n">
-        <v>2.848786568713527</v>
+        <v>2.84878656871353</v>
       </c>
       <c r="I27" t="n">
-        <v>10.15575593297057</v>
+        <v>10.15575593297058</v>
       </c>
       <c r="J27" t="n">
-        <v>27.8681705161935</v>
+        <v>27.86817051619353</v>
       </c>
       <c r="K27" t="n">
-        <v>47.63114218906717</v>
+        <v>47.63114218906722</v>
       </c>
       <c r="L27" t="n">
-        <v>64.04594872123667</v>
+        <v>64.04594872123673</v>
       </c>
       <c r="M27" t="n">
-        <v>74.73860130544068</v>
+        <v>74.73860130544077</v>
       </c>
       <c r="N27" t="n">
-        <v>76.71670969034669</v>
+        <v>76.71670969034676</v>
       </c>
       <c r="O27" t="n">
-        <v>70.18080154087315</v>
+        <v>70.18080154087322</v>
       </c>
       <c r="P27" t="n">
-        <v>56.32628048530859</v>
+        <v>56.32628048530865</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.65262683734718</v>
+        <v>37.65262683734721</v>
       </c>
       <c r="R27" t="n">
-        <v>18.31399757797852</v>
+        <v>18.31399757797854</v>
       </c>
       <c r="S27" t="n">
-        <v>5.478933296322333</v>
+        <v>5.478933296322338</v>
       </c>
       <c r="T27" t="n">
-        <v>1.188934993936299</v>
+        <v>1.1889349939363</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01940590305663166</v>
+        <v>0.01940590305663168</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2472927099894262</v>
+        <v>0.2472927099894265</v>
       </c>
       <c r="H28" t="n">
-        <v>2.198657003360537</v>
+        <v>2.198657003360539</v>
       </c>
       <c r="I28" t="n">
-        <v>7.436766224045657</v>
+        <v>7.436766224045665</v>
       </c>
       <c r="J28" t="n">
-        <v>17.48359459625243</v>
+        <v>17.48359459625245</v>
       </c>
       <c r="K28" t="n">
-        <v>28.73091666968061</v>
+        <v>28.73091666968064</v>
       </c>
       <c r="L28" t="n">
-        <v>36.76568162879161</v>
+        <v>36.76568162879165</v>
       </c>
       <c r="M28" t="n">
-        <v>38.76425634861524</v>
+        <v>38.76425634861528</v>
       </c>
       <c r="N28" t="n">
-        <v>37.84252897501832</v>
+        <v>37.84252897501835</v>
       </c>
       <c r="O28" t="n">
-        <v>34.95370049923273</v>
+        <v>34.95370049923277</v>
       </c>
       <c r="P28" t="n">
-        <v>29.90892921544841</v>
+        <v>29.90892921544845</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.70739228829641</v>
+        <v>20.70739228829643</v>
       </c>
       <c r="R28" t="n">
-        <v>11.11917948734274</v>
+        <v>11.11917948734276</v>
       </c>
       <c r="S28" t="n">
-        <v>4.309637500452091</v>
+        <v>4.309637500452095</v>
       </c>
       <c r="T28" t="n">
-        <v>1.056614306318457</v>
+        <v>1.056614306318459</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01348869327215054</v>
+        <v>0.01348869327215055</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5512966764497035</v>
+        <v>0.5512966764497037</v>
       </c>
       <c r="H29" t="n">
-        <v>5.645967087690527</v>
+        <v>5.645967087690529</v>
       </c>
       <c r="I29" t="n">
-        <v>21.25386511882721</v>
+        <v>21.25386511882722</v>
       </c>
       <c r="J29" t="n">
-        <v>46.79061629282306</v>
+        <v>46.79061629282308</v>
       </c>
       <c r="K29" t="n">
-        <v>70.12700460693902</v>
+        <v>70.12700460693905</v>
       </c>
       <c r="L29" t="n">
-        <v>86.99875026883664</v>
+        <v>86.99875026883669</v>
       </c>
       <c r="M29" t="n">
-        <v>96.80287253864905</v>
+        <v>96.8028725386491</v>
       </c>
       <c r="N29" t="n">
-        <v>98.36924422061179</v>
+        <v>98.36924422061183</v>
       </c>
       <c r="O29" t="n">
-        <v>92.88728789416504</v>
+        <v>92.88728789416508</v>
       </c>
       <c r="P29" t="n">
-        <v>79.27715119431298</v>
+        <v>79.27715119431301</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.53383896895795</v>
+        <v>59.53383896895798</v>
       </c>
       <c r="R29" t="n">
-        <v>34.63038985203372</v>
+        <v>34.63038985203373</v>
       </c>
       <c r="S29" t="n">
-        <v>12.56267301459763</v>
+        <v>12.56267301459764</v>
       </c>
       <c r="T29" t="n">
-        <v>2.413301201158578</v>
+        <v>2.413301201158579</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04410373411597627</v>
+        <v>0.04410373411597628</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2949697264608014</v>
+        <v>0.2949697264608016</v>
       </c>
       <c r="H30" t="n">
         <v>2.848786568713531</v>
@@ -33260,40 +33260,40 @@
         <v>10.15575593297058</v>
       </c>
       <c r="J30" t="n">
-        <v>27.86817051619353</v>
+        <v>27.86817051619354</v>
       </c>
       <c r="K30" t="n">
-        <v>47.63114218906723</v>
+        <v>47.63114218906725</v>
       </c>
       <c r="L30" t="n">
-        <v>64.04594872123674</v>
+        <v>64.04594872123677</v>
       </c>
       <c r="M30" t="n">
-        <v>74.73860130544078</v>
+        <v>74.73860130544081</v>
       </c>
       <c r="N30" t="n">
-        <v>76.71670969034679</v>
+        <v>76.71670969034682</v>
       </c>
       <c r="O30" t="n">
-        <v>70.18080154087323</v>
+        <v>70.18080154087326</v>
       </c>
       <c r="P30" t="n">
-        <v>56.32628048530866</v>
+        <v>56.32628048530869</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.65262683734722</v>
+        <v>37.65262683734723</v>
       </c>
       <c r="R30" t="n">
-        <v>18.31399757797854</v>
+        <v>18.31399757797855</v>
       </c>
       <c r="S30" t="n">
-        <v>5.47893329632234</v>
+        <v>5.478933296322341</v>
       </c>
       <c r="T30" t="n">
-        <v>1.1889349939363</v>
+        <v>1.188934993936301</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01940590305663168</v>
+        <v>0.01940590305663169</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2472927099894266</v>
+        <v>0.2472927099894267</v>
       </c>
       <c r="H31" t="n">
-        <v>2.19865700336054</v>
+        <v>2.198657003360541</v>
       </c>
       <c r="I31" t="n">
-        <v>7.436766224045666</v>
+        <v>7.43676622404567</v>
       </c>
       <c r="J31" t="n">
         <v>17.48359459625246</v>
       </c>
       <c r="K31" t="n">
-        <v>28.73091666968064</v>
+        <v>28.73091666968066</v>
       </c>
       <c r="L31" t="n">
-        <v>36.76568162879166</v>
+        <v>36.76568162879168</v>
       </c>
       <c r="M31" t="n">
-        <v>38.76425634861528</v>
+        <v>38.76425634861531</v>
       </c>
       <c r="N31" t="n">
-        <v>37.84252897501837</v>
+        <v>37.84252897501838</v>
       </c>
       <c r="O31" t="n">
-        <v>34.95370049923278</v>
+        <v>34.9537004992328</v>
       </c>
       <c r="P31" t="n">
-        <v>29.90892921544845</v>
+        <v>29.90892921544846</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.70739228829644</v>
+        <v>20.70739228829645</v>
       </c>
       <c r="R31" t="n">
         <v>11.11917948734276</v>
       </c>
       <c r="S31" t="n">
-        <v>4.309637500452096</v>
+        <v>4.309637500452098</v>
       </c>
       <c r="T31" t="n">
         <v>1.056614306318459</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5512966764497035</v>
+        <v>0.5512966764497034</v>
       </c>
       <c r="H32" t="n">
-        <v>5.645967087690527</v>
+        <v>5.645967087690526</v>
       </c>
       <c r="I32" t="n">
         <v>21.25386511882721</v>
       </c>
       <c r="J32" t="n">
-        <v>46.79061629282306</v>
+        <v>46.79061629282305</v>
       </c>
       <c r="K32" t="n">
-        <v>70.12700460693902</v>
+        <v>70.12700460693901</v>
       </c>
       <c r="L32" t="n">
-        <v>86.99875026883664</v>
+        <v>86.99875026883663</v>
       </c>
       <c r="M32" t="n">
-        <v>96.80287253864905</v>
+        <v>96.80287253864904</v>
       </c>
       <c r="N32" t="n">
-        <v>98.36924422061179</v>
+        <v>98.36924422061176</v>
       </c>
       <c r="O32" t="n">
-        <v>92.88728789416504</v>
+        <v>92.88728789416503</v>
       </c>
       <c r="P32" t="n">
-        <v>79.27715119431298</v>
+        <v>79.27715119431296</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.53383896895795</v>
+        <v>59.53383896895794</v>
       </c>
       <c r="R32" t="n">
-        <v>34.63038985203372</v>
+        <v>34.63038985203371</v>
       </c>
       <c r="S32" t="n">
         <v>12.56267301459763</v>
       </c>
       <c r="T32" t="n">
-        <v>2.413301201158578</v>
+        <v>2.413301201158577</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04410373411597627</v>
+        <v>0.04410373411597625</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>0.2949697264608014</v>
       </c>
       <c r="H33" t="n">
-        <v>2.848786568713531</v>
+        <v>2.84878656871353</v>
       </c>
       <c r="I33" t="n">
         <v>10.15575593297058</v>
@@ -33500,31 +33500,31 @@
         <v>27.86817051619353</v>
       </c>
       <c r="K33" t="n">
-        <v>47.63114218906723</v>
+        <v>47.63114218906722</v>
       </c>
       <c r="L33" t="n">
-        <v>64.04594872123674</v>
+        <v>64.04594872123673</v>
       </c>
       <c r="M33" t="n">
-        <v>74.73860130544078</v>
+        <v>74.73860130544077</v>
       </c>
       <c r="N33" t="n">
-        <v>76.71670969034679</v>
+        <v>76.71670969034676</v>
       </c>
       <c r="O33" t="n">
-        <v>70.18080154087323</v>
+        <v>70.18080154087322</v>
       </c>
       <c r="P33" t="n">
-        <v>56.32628048530866</v>
+        <v>56.32628048530865</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.65262683734722</v>
+        <v>37.65262683734721</v>
       </c>
       <c r="R33" t="n">
         <v>18.31399757797854</v>
       </c>
       <c r="S33" t="n">
-        <v>5.47893329632234</v>
+        <v>5.478933296322338</v>
       </c>
       <c r="T33" t="n">
         <v>1.1889349939363</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2472927099894266</v>
+        <v>0.2472927099894265</v>
       </c>
       <c r="H34" t="n">
-        <v>2.19865700336054</v>
+        <v>2.198657003360539</v>
       </c>
       <c r="I34" t="n">
-        <v>7.436766224045666</v>
+        <v>7.436766224045665</v>
       </c>
       <c r="J34" t="n">
-        <v>17.48359459625246</v>
+        <v>17.48359459625245</v>
       </c>
       <c r="K34" t="n">
         <v>28.73091666968064</v>
       </c>
       <c r="L34" t="n">
-        <v>36.76568162879166</v>
+        <v>36.76568162879165</v>
       </c>
       <c r="M34" t="n">
         <v>38.76425634861528</v>
       </c>
       <c r="N34" t="n">
-        <v>37.84252897501837</v>
+        <v>37.84252897501835</v>
       </c>
       <c r="O34" t="n">
-        <v>34.95370049923278</v>
+        <v>34.95370049923277</v>
       </c>
       <c r="P34" t="n">
         <v>29.90892921544845</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.70739228829644</v>
+        <v>20.70739228829643</v>
       </c>
       <c r="R34" t="n">
         <v>11.11917948734276</v>
       </c>
       <c r="S34" t="n">
-        <v>4.309637500452096</v>
+        <v>4.309637500452095</v>
       </c>
       <c r="T34" t="n">
         <v>1.056614306318459</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01348869327215056</v>
+        <v>0.01348869327215055</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5512966764497035</v>
+        <v>0.5512966764497034</v>
       </c>
       <c r="H35" t="n">
-        <v>5.645967087690527</v>
+        <v>5.645967087690526</v>
       </c>
       <c r="I35" t="n">
         <v>21.25386511882721</v>
       </c>
       <c r="J35" t="n">
-        <v>46.79061629282306</v>
+        <v>46.79061629282305</v>
       </c>
       <c r="K35" t="n">
-        <v>70.12700460693902</v>
+        <v>70.12700460693901</v>
       </c>
       <c r="L35" t="n">
-        <v>86.99875026883664</v>
+        <v>86.99875026883663</v>
       </c>
       <c r="M35" t="n">
-        <v>96.80287253864905</v>
+        <v>96.80287253864904</v>
       </c>
       <c r="N35" t="n">
-        <v>98.36924422061179</v>
+        <v>98.36924422061176</v>
       </c>
       <c r="O35" t="n">
-        <v>92.88728789416504</v>
+        <v>92.88728789416503</v>
       </c>
       <c r="P35" t="n">
-        <v>79.27715119431298</v>
+        <v>79.27715119431296</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.53383896895795</v>
+        <v>59.53383896895794</v>
       </c>
       <c r="R35" t="n">
-        <v>34.63038985203372</v>
+        <v>34.63038985203371</v>
       </c>
       <c r="S35" t="n">
         <v>12.56267301459763</v>
       </c>
       <c r="T35" t="n">
-        <v>2.413301201158578</v>
+        <v>2.413301201158577</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04410373411597627</v>
+        <v>0.04410373411597625</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>0.2949697264608014</v>
       </c>
       <c r="H36" t="n">
-        <v>2.848786568713531</v>
+        <v>2.84878656871353</v>
       </c>
       <c r="I36" t="n">
         <v>10.15575593297058</v>
@@ -33737,31 +33737,31 @@
         <v>27.86817051619353</v>
       </c>
       <c r="K36" t="n">
-        <v>47.63114218906723</v>
+        <v>47.63114218906722</v>
       </c>
       <c r="L36" t="n">
-        <v>64.04594872123674</v>
+        <v>64.04594872123673</v>
       </c>
       <c r="M36" t="n">
-        <v>74.73860130544078</v>
+        <v>74.73860130544077</v>
       </c>
       <c r="N36" t="n">
-        <v>76.71670969034679</v>
+        <v>76.71670969034676</v>
       </c>
       <c r="O36" t="n">
-        <v>70.18080154087323</v>
+        <v>70.18080154087322</v>
       </c>
       <c r="P36" t="n">
-        <v>56.32628048530866</v>
+        <v>56.32628048530865</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.65262683734722</v>
+        <v>37.65262683734721</v>
       </c>
       <c r="R36" t="n">
         <v>18.31399757797854</v>
       </c>
       <c r="S36" t="n">
-        <v>5.47893329632234</v>
+        <v>5.478933296322338</v>
       </c>
       <c r="T36" t="n">
         <v>1.1889349939363</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2472927099894266</v>
+        <v>0.2472927099894265</v>
       </c>
       <c r="H37" t="n">
-        <v>2.19865700336054</v>
+        <v>2.198657003360539</v>
       </c>
       <c r="I37" t="n">
-        <v>7.436766224045666</v>
+        <v>7.436766224045665</v>
       </c>
       <c r="J37" t="n">
-        <v>17.48359459625246</v>
+        <v>17.48359459625245</v>
       </c>
       <c r="K37" t="n">
         <v>28.73091666968064</v>
       </c>
       <c r="L37" t="n">
-        <v>36.76568162879166</v>
+        <v>36.76568162879165</v>
       </c>
       <c r="M37" t="n">
         <v>38.76425634861528</v>
       </c>
       <c r="N37" t="n">
-        <v>37.84252897501837</v>
+        <v>37.84252897501835</v>
       </c>
       <c r="O37" t="n">
-        <v>34.95370049923278</v>
+        <v>34.95370049923277</v>
       </c>
       <c r="P37" t="n">
         <v>29.90892921544845</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.70739228829644</v>
+        <v>20.70739228829643</v>
       </c>
       <c r="R37" t="n">
         <v>11.11917948734276</v>
       </c>
       <c r="S37" t="n">
-        <v>4.309637500452096</v>
+        <v>4.309637500452095</v>
       </c>
       <c r="T37" t="n">
         <v>1.056614306318459</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01348869327215056</v>
+        <v>0.01348869327215055</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5512966764497035</v>
+        <v>0.5512966764497034</v>
       </c>
       <c r="H38" t="n">
-        <v>5.645967087690527</v>
+        <v>5.645967087690526</v>
       </c>
       <c r="I38" t="n">
         <v>21.25386511882721</v>
       </c>
       <c r="J38" t="n">
-        <v>46.79061629282306</v>
+        <v>46.79061629282305</v>
       </c>
       <c r="K38" t="n">
-        <v>70.12700460693902</v>
+        <v>70.12700460693901</v>
       </c>
       <c r="L38" t="n">
-        <v>86.99875026883664</v>
+        <v>86.99875026883663</v>
       </c>
       <c r="M38" t="n">
-        <v>96.80287253864905</v>
+        <v>96.80287253864904</v>
       </c>
       <c r="N38" t="n">
-        <v>98.36924422061179</v>
+        <v>98.36924422061176</v>
       </c>
       <c r="O38" t="n">
-        <v>92.88728789416504</v>
+        <v>92.88728789416503</v>
       </c>
       <c r="P38" t="n">
-        <v>79.27715119431298</v>
+        <v>79.27715119431296</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.53383896895795</v>
+        <v>59.53383896895794</v>
       </c>
       <c r="R38" t="n">
-        <v>34.63038985203372</v>
+        <v>34.63038985203371</v>
       </c>
       <c r="S38" t="n">
         <v>12.56267301459763</v>
       </c>
       <c r="T38" t="n">
-        <v>2.413301201158578</v>
+        <v>2.413301201158577</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04410373411597627</v>
+        <v>0.04410373411597625</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>0.2949697264608014</v>
       </c>
       <c r="H39" t="n">
-        <v>2.848786568713531</v>
+        <v>2.84878656871353</v>
       </c>
       <c r="I39" t="n">
         <v>10.15575593297058</v>
@@ -33974,31 +33974,31 @@
         <v>27.86817051619353</v>
       </c>
       <c r="K39" t="n">
-        <v>47.63114218906723</v>
+        <v>47.63114218906722</v>
       </c>
       <c r="L39" t="n">
-        <v>64.04594872123674</v>
+        <v>64.04594872123673</v>
       </c>
       <c r="M39" t="n">
-        <v>74.73860130544078</v>
+        <v>74.73860130544077</v>
       </c>
       <c r="N39" t="n">
-        <v>76.71670969034679</v>
+        <v>76.71670969034676</v>
       </c>
       <c r="O39" t="n">
-        <v>70.18080154087323</v>
+        <v>70.18080154087322</v>
       </c>
       <c r="P39" t="n">
-        <v>56.32628048530866</v>
+        <v>56.32628048530865</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.65262683734722</v>
+        <v>37.65262683734721</v>
       </c>
       <c r="R39" t="n">
         <v>18.31399757797854</v>
       </c>
       <c r="S39" t="n">
-        <v>5.47893329632234</v>
+        <v>5.478933296322338</v>
       </c>
       <c r="T39" t="n">
         <v>1.1889349939363</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2472927099894266</v>
+        <v>0.2472927099894265</v>
       </c>
       <c r="H40" t="n">
-        <v>2.19865700336054</v>
+        <v>2.198657003360539</v>
       </c>
       <c r="I40" t="n">
-        <v>7.436766224045666</v>
+        <v>7.436766224045665</v>
       </c>
       <c r="J40" t="n">
-        <v>17.48359459625246</v>
+        <v>17.48359459625245</v>
       </c>
       <c r="K40" t="n">
         <v>28.73091666968064</v>
       </c>
       <c r="L40" t="n">
-        <v>36.76568162879166</v>
+        <v>36.76568162879165</v>
       </c>
       <c r="M40" t="n">
         <v>38.76425634861528</v>
       </c>
       <c r="N40" t="n">
-        <v>37.84252897501837</v>
+        <v>37.84252897501835</v>
       </c>
       <c r="O40" t="n">
-        <v>34.95370049923278</v>
+        <v>34.95370049923277</v>
       </c>
       <c r="P40" t="n">
         <v>29.90892921544845</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.70739228829644</v>
+        <v>20.70739228829643</v>
       </c>
       <c r="R40" t="n">
         <v>11.11917948734276</v>
       </c>
       <c r="S40" t="n">
-        <v>4.309637500452096</v>
+        <v>4.309637500452095</v>
       </c>
       <c r="T40" t="n">
         <v>1.056614306318459</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01348869327215056</v>
+        <v>0.01348869327215055</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5512966764497035</v>
+        <v>0.5512966764497034</v>
       </c>
       <c r="H41" t="n">
-        <v>5.645967087690527</v>
+        <v>5.645967087690526</v>
       </c>
       <c r="I41" t="n">
         <v>21.25386511882721</v>
       </c>
       <c r="J41" t="n">
-        <v>46.79061629282306</v>
+        <v>46.79061629282305</v>
       </c>
       <c r="K41" t="n">
-        <v>70.12700460693902</v>
+        <v>70.12700460693901</v>
       </c>
       <c r="L41" t="n">
-        <v>86.99875026883664</v>
+        <v>86.99875026883663</v>
       </c>
       <c r="M41" t="n">
-        <v>96.80287253864905</v>
+        <v>96.80287253864904</v>
       </c>
       <c r="N41" t="n">
-        <v>98.36924422061179</v>
+        <v>98.36924422061176</v>
       </c>
       <c r="O41" t="n">
-        <v>92.88728789416504</v>
+        <v>92.88728789416503</v>
       </c>
       <c r="P41" t="n">
-        <v>79.27715119431298</v>
+        <v>79.27715119431296</v>
       </c>
       <c r="Q41" t="n">
-        <v>59.53383896895795</v>
+        <v>59.53383896895794</v>
       </c>
       <c r="R41" t="n">
-        <v>34.63038985203372</v>
+        <v>34.63038985203371</v>
       </c>
       <c r="S41" t="n">
         <v>12.56267301459763</v>
       </c>
       <c r="T41" t="n">
-        <v>2.413301201158578</v>
+        <v>2.413301201158577</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04410373411597627</v>
+        <v>0.04410373411597625</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>0.2949697264608014</v>
       </c>
       <c r="H42" t="n">
-        <v>2.848786568713531</v>
+        <v>2.84878656871353</v>
       </c>
       <c r="I42" t="n">
         <v>10.15575593297058</v>
@@ -34211,31 +34211,31 @@
         <v>27.86817051619353</v>
       </c>
       <c r="K42" t="n">
-        <v>47.63114218906723</v>
+        <v>47.63114218906722</v>
       </c>
       <c r="L42" t="n">
-        <v>64.04594872123674</v>
+        <v>64.04594872123673</v>
       </c>
       <c r="M42" t="n">
-        <v>74.73860130544078</v>
+        <v>74.73860130544077</v>
       </c>
       <c r="N42" t="n">
-        <v>76.71670969034679</v>
+        <v>76.71670969034676</v>
       </c>
       <c r="O42" t="n">
-        <v>70.18080154087323</v>
+        <v>70.18080154087322</v>
       </c>
       <c r="P42" t="n">
-        <v>56.32628048530866</v>
+        <v>56.32628048530865</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.65262683734722</v>
+        <v>37.65262683734721</v>
       </c>
       <c r="R42" t="n">
         <v>18.31399757797854</v>
       </c>
       <c r="S42" t="n">
-        <v>5.47893329632234</v>
+        <v>5.478933296322338</v>
       </c>
       <c r="T42" t="n">
         <v>1.1889349939363</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2472927099894266</v>
+        <v>0.2472927099894265</v>
       </c>
       <c r="H43" t="n">
-        <v>2.19865700336054</v>
+        <v>2.198657003360539</v>
       </c>
       <c r="I43" t="n">
-        <v>7.436766224045666</v>
+        <v>7.436766224045665</v>
       </c>
       <c r="J43" t="n">
-        <v>17.48359459625246</v>
+        <v>17.48359459625245</v>
       </c>
       <c r="K43" t="n">
         <v>28.73091666968064</v>
       </c>
       <c r="L43" t="n">
-        <v>36.76568162879166</v>
+        <v>36.76568162879165</v>
       </c>
       <c r="M43" t="n">
         <v>38.76425634861528</v>
       </c>
       <c r="N43" t="n">
-        <v>37.84252897501837</v>
+        <v>37.84252897501835</v>
       </c>
       <c r="O43" t="n">
-        <v>34.95370049923278</v>
+        <v>34.95370049923277</v>
       </c>
       <c r="P43" t="n">
         <v>29.90892921544845</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.70739228829644</v>
+        <v>20.70739228829643</v>
       </c>
       <c r="R43" t="n">
         <v>11.11917948734276</v>
       </c>
       <c r="S43" t="n">
-        <v>4.309637500452096</v>
+        <v>4.309637500452095</v>
       </c>
       <c r="T43" t="n">
         <v>1.056614306318459</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01348869327215056</v>
+        <v>0.01348869327215055</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5512966764497035</v>
+        <v>0.5512966764497034</v>
       </c>
       <c r="H44" t="n">
-        <v>5.645967087690527</v>
+        <v>5.645967087690526</v>
       </c>
       <c r="I44" t="n">
         <v>21.25386511882721</v>
       </c>
       <c r="J44" t="n">
-        <v>46.79061629282306</v>
+        <v>46.79061629282305</v>
       </c>
       <c r="K44" t="n">
-        <v>70.12700460693902</v>
+        <v>70.12700460693901</v>
       </c>
       <c r="L44" t="n">
-        <v>86.99875026883664</v>
+        <v>86.99875026883663</v>
       </c>
       <c r="M44" t="n">
-        <v>96.80287253864905</v>
+        <v>96.80287253864904</v>
       </c>
       <c r="N44" t="n">
-        <v>98.36924422061179</v>
+        <v>98.36924422061176</v>
       </c>
       <c r="O44" t="n">
-        <v>92.88728789416504</v>
+        <v>92.88728789416503</v>
       </c>
       <c r="P44" t="n">
-        <v>79.27715119431298</v>
+        <v>79.27715119431296</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.53383896895795</v>
+        <v>59.53383896895794</v>
       </c>
       <c r="R44" t="n">
-        <v>34.63038985203372</v>
+        <v>34.63038985203371</v>
       </c>
       <c r="S44" t="n">
         <v>12.56267301459763</v>
       </c>
       <c r="T44" t="n">
-        <v>2.413301201158578</v>
+        <v>2.413301201158577</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04410373411597627</v>
+        <v>0.04410373411597625</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>0.2949697264608014</v>
       </c>
       <c r="H45" t="n">
-        <v>2.848786568713531</v>
+        <v>2.84878656871353</v>
       </c>
       <c r="I45" t="n">
         <v>10.15575593297058</v>
@@ -34448,31 +34448,31 @@
         <v>27.86817051619353</v>
       </c>
       <c r="K45" t="n">
-        <v>47.63114218906723</v>
+        <v>47.63114218906722</v>
       </c>
       <c r="L45" t="n">
-        <v>64.04594872123674</v>
+        <v>64.04594872123673</v>
       </c>
       <c r="M45" t="n">
-        <v>74.73860130544078</v>
+        <v>74.73860130544077</v>
       </c>
       <c r="N45" t="n">
-        <v>76.71670969034679</v>
+        <v>76.71670969034676</v>
       </c>
       <c r="O45" t="n">
-        <v>70.18080154087323</v>
+        <v>70.18080154087322</v>
       </c>
       <c r="P45" t="n">
-        <v>56.32628048530866</v>
+        <v>56.32628048530865</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.65262683734722</v>
+        <v>37.65262683734721</v>
       </c>
       <c r="R45" t="n">
         <v>18.31399757797854</v>
       </c>
       <c r="S45" t="n">
-        <v>5.47893329632234</v>
+        <v>5.478933296322338</v>
       </c>
       <c r="T45" t="n">
         <v>1.1889349939363</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2472927099894266</v>
+        <v>0.2472927099894265</v>
       </c>
       <c r="H46" t="n">
-        <v>2.19865700336054</v>
+        <v>2.198657003360539</v>
       </c>
       <c r="I46" t="n">
-        <v>7.436766224045666</v>
+        <v>7.436766224045665</v>
       </c>
       <c r="J46" t="n">
-        <v>17.48359459625246</v>
+        <v>17.48359459625245</v>
       </c>
       <c r="K46" t="n">
         <v>28.73091666968064</v>
       </c>
       <c r="L46" t="n">
-        <v>36.76568162879166</v>
+        <v>36.76568162879165</v>
       </c>
       <c r="M46" t="n">
         <v>38.76425634861528</v>
       </c>
       <c r="N46" t="n">
-        <v>37.84252897501837</v>
+        <v>37.84252897501835</v>
       </c>
       <c r="O46" t="n">
-        <v>34.95370049923278</v>
+        <v>34.95370049923277</v>
       </c>
       <c r="P46" t="n">
         <v>29.90892921544845</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.70739228829644</v>
+        <v>20.70739228829643</v>
       </c>
       <c r="R46" t="n">
         <v>11.11917948734276</v>
       </c>
       <c r="S46" t="n">
-        <v>4.309637500452096</v>
+        <v>4.309637500452095</v>
       </c>
       <c r="T46" t="n">
         <v>1.056614306318459</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01348869327215056</v>
+        <v>0.01348869327215055</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>119.5164185885864</v>
+        <v>119.5164185885863</v>
       </c>
       <c r="K11" t="n">
         <v>312.6930369754065</v>
       </c>
       <c r="L11" t="n">
-        <v>438.3981170213076</v>
+        <v>134.9355853347849</v>
       </c>
       <c r="M11" t="n">
-        <v>494.0141515821723</v>
+        <v>494.0141515821722</v>
       </c>
       <c r="N11" t="n">
-        <v>480.5221317839611</v>
+        <v>480.522131783961</v>
       </c>
       <c r="O11" t="n">
         <v>400.9727267556135</v>
       </c>
       <c r="P11" t="n">
-        <v>161.1960848834039</v>
+        <v>309.7386627660839</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>154.9199538038438</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.73094479205832</v>
       </c>
       <c r="K12" t="n">
         <v>279.4397811387528</v>
@@ -35495,19 +35495,19 @@
         <v>433.5629640445859</v>
       </c>
       <c r="M12" t="n">
-        <v>273.3472254552602</v>
+        <v>564.6712816188008</v>
       </c>
       <c r="N12" t="n">
         <v>593.146655269258</v>
       </c>
       <c r="O12" t="n">
-        <v>466.3423679895105</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>361.4736736930837</v>
+        <v>361.4736736930836</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>86.2873670339128</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.2720660597172</v>
+        <v>60.27206605971713</v>
       </c>
       <c r="K13" t="n">
-        <v>164.9196783176027</v>
+        <v>164.9196783176026</v>
       </c>
       <c r="L13" t="n">
         <v>240.63413181774</v>
       </c>
       <c r="M13" t="n">
-        <v>260.1947537368993</v>
+        <v>260.1947537368992</v>
       </c>
       <c r="N13" t="n">
-        <v>259.7061936582505</v>
+        <v>259.7061936582504</v>
       </c>
       <c r="O13" t="n">
-        <v>236.6570669461915</v>
+        <v>236.6570669461914</v>
       </c>
       <c r="P13" t="n">
-        <v>195.7585958972032</v>
+        <v>195.7585958972031</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.80056201888233</v>
+        <v>84.80056201888226</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>119.5164185885863</v>
       </c>
       <c r="K14" t="n">
-        <v>9.230505288882849</v>
+        <v>312.6930369754065</v>
       </c>
       <c r="L14" t="n">
         <v>438.3981170213076</v>
@@ -35656,7 +35656,7 @@
         <v>494.0141515821722</v>
       </c>
       <c r="N14" t="n">
-        <v>480.522131783961</v>
+        <v>331.9795539012821</v>
       </c>
       <c r="O14" t="n">
         <v>400.9727267556135</v>
@@ -35665,7 +35665,7 @@
         <v>309.7386627660839</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.9199538038438</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>88.73094479205832</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>279.4397811387528</v>
       </c>
       <c r="L15" t="n">
         <v>433.5629640445859</v>
       </c>
       <c r="M15" t="n">
-        <v>355.7690971449545</v>
+        <v>564.6712816188008</v>
       </c>
       <c r="N15" t="n">
-        <v>593.146655269258</v>
+        <v>16.07374486460148</v>
       </c>
       <c r="O15" t="n">
         <v>466.3423679895105</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.2720660597165</v>
+        <v>60.27206605971713</v>
       </c>
       <c r="K16" t="n">
-        <v>164.9196783176027</v>
+        <v>164.9196783176026</v>
       </c>
       <c r="L16" t="n">
-        <v>240.63413181774</v>
+        <v>240.6341318177406</v>
       </c>
       <c r="M16" t="n">
-        <v>260.1947537368993</v>
+        <v>260.1947537368992</v>
       </c>
       <c r="N16" t="n">
         <v>259.7061936582504</v>
       </c>
       <c r="O16" t="n">
-        <v>236.6570669461915</v>
+        <v>236.6570669461914</v>
       </c>
       <c r="P16" t="n">
-        <v>195.7585958972032</v>
+        <v>195.7585958972031</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.80056201888232</v>
+        <v>84.80056201888226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>119.5164185885863</v>
       </c>
       <c r="K17" t="n">
-        <v>9.230505288882849</v>
+        <v>312.6930369754065</v>
       </c>
       <c r="L17" t="n">
-        <v>438.3981170213076</v>
+        <v>134.9355853347849</v>
       </c>
       <c r="M17" t="n">
         <v>494.0141515821722</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>88.73094479205832</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>279.4397811387528</v>
       </c>
       <c r="L18" t="n">
         <v>433.5629640445859</v>
@@ -35972,10 +35972,10 @@
         <v>564.6712816188008</v>
       </c>
       <c r="N18" t="n">
-        <v>593.146655269258</v>
+        <v>213.0916543136602</v>
       </c>
       <c r="O18" t="n">
-        <v>454.4580929647229</v>
+        <v>466.3423679895105</v>
       </c>
       <c r="P18" t="n">
         <v>361.4736736930836</v>
@@ -36121,7 +36121,7 @@
         <v>119.5164185885863</v>
       </c>
       <c r="K20" t="n">
-        <v>312.6930369754065</v>
+        <v>9.230505288883739</v>
       </c>
       <c r="L20" t="n">
         <v>438.3981170213076</v>
@@ -36136,10 +36136,10 @@
         <v>400.9727267556135</v>
       </c>
       <c r="P20" t="n">
-        <v>161.1960848834044</v>
+        <v>309.7386627660839</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>154.9199538038438</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>279.4397811387528</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>433.5629640445859</v>
       </c>
       <c r="M21" t="n">
         <v>564.6712816188008</v>
       </c>
       <c r="N21" t="n">
-        <v>593.146655269258</v>
+        <v>16.07374486460148</v>
       </c>
       <c r="O21" t="n">
         <v>466.3423679895105</v>
       </c>
       <c r="P21" t="n">
-        <v>217.9637273330122</v>
+        <v>361.4736736930836</v>
       </c>
       <c r="Q21" t="n">
         <v>197.0179094490585</v>
@@ -36373,10 +36373,10 @@
         <v>400.9727267556135</v>
       </c>
       <c r="P23" t="n">
-        <v>161.1960848834039</v>
+        <v>6.27613107956153</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>154.9199538038438</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>279.4397811387528</v>
       </c>
       <c r="L24" t="n">
-        <v>433.5629640445859</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>564.6712816188008</v>
       </c>
       <c r="N24" t="n">
-        <v>581.26238024447</v>
+        <v>593.146655269258</v>
       </c>
       <c r="O24" t="n">
         <v>466.3423679895105</v>
@@ -36455,7 +36455,7 @@
         <v>361.4736736930836</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>142.2389078810463</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>221.76155625202</v>
+        <v>221.7615562520201</v>
       </c>
       <c r="K26" t="n">
-        <v>312.6930369754064</v>
+        <v>414.9381746388402</v>
       </c>
       <c r="L26" t="n">
-        <v>540.6432546847411</v>
+        <v>540.6432546847414</v>
       </c>
       <c r="M26" t="n">
-        <v>596.2592892456058</v>
+        <v>586.2317044248557</v>
       </c>
       <c r="N26" t="n">
-        <v>582.7672694473946</v>
+        <v>582.7672694473947</v>
       </c>
       <c r="O26" t="n">
-        <v>503.2178644190471</v>
+        <v>503.2178644190472</v>
       </c>
       <c r="P26" t="n">
-        <v>411.9838004295175</v>
+        <v>309.7386627660839</v>
       </c>
       <c r="Q26" t="n">
-        <v>247.1375066465287</v>
+        <v>257.1650914672775</v>
       </c>
       <c r="R26" t="n">
-        <v>47.14362387636221</v>
+        <v>47.14362387636226</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>85.81113879568318</v>
+        <v>279.4397811387528</v>
       </c>
       <c r="L27" t="n">
-        <v>433.5629640445858</v>
+        <v>433.5629640445859</v>
       </c>
       <c r="M27" t="n">
-        <v>564.6712816188008</v>
+        <v>174.0247298266723</v>
       </c>
       <c r="N27" t="n">
-        <v>593.1466552692578</v>
+        <v>593.146655269258</v>
       </c>
       <c r="O27" t="n">
-        <v>466.3423679895104</v>
+        <v>466.3423679895105</v>
       </c>
       <c r="P27" t="n">
         <v>361.4736736930836</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>197.0179094490585</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.27206605971716</v>
+        <v>60.27206605971719</v>
       </c>
       <c r="K28" t="n">
-        <v>164.9196783176026</v>
+        <v>164.9196783176027</v>
       </c>
       <c r="L28" t="n">
         <v>240.63413181774</v>
       </c>
       <c r="M28" t="n">
-        <v>260.1947537368992</v>
+        <v>260.1947537368993</v>
       </c>
       <c r="N28" t="n">
         <v>259.7061936582504</v>
       </c>
       <c r="O28" t="n">
-        <v>236.6570669461914</v>
+        <v>236.6570669461915</v>
       </c>
       <c r="P28" t="n">
         <v>195.7585958972032</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.80056201888229</v>
+        <v>84.80056201888232</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>119.5164185885863</v>
+        <v>221.7615562520201</v>
       </c>
       <c r="K29" t="n">
-        <v>404.9105898180911</v>
+        <v>349.8090760310181</v>
       </c>
       <c r="L29" t="n">
-        <v>540.6432546847412</v>
+        <v>540.6432546847414</v>
       </c>
       <c r="M29" t="n">
-        <v>596.2592892456059</v>
+        <v>596.2592892456061</v>
       </c>
       <c r="N29" t="n">
-        <v>582.7672694473947</v>
+        <v>582.7672694473948</v>
       </c>
       <c r="O29" t="n">
-        <v>503.2178644190471</v>
+        <v>503.2178644190473</v>
       </c>
       <c r="P29" t="n">
-        <v>411.9838004295176</v>
+        <v>411.9838004295177</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.1650914672775</v>
+        <v>257.1650914672776</v>
       </c>
       <c r="R29" t="n">
-        <v>47.14362387636224</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.73094479205832</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>279.4397811387528</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>433.5629640445859</v>
       </c>
       <c r="M30" t="n">
-        <v>564.6712816188008</v>
+        <v>564.6712816188009</v>
       </c>
       <c r="N30" t="n">
-        <v>113.7691586850711</v>
+        <v>481.9398846158819</v>
       </c>
       <c r="O30" t="n">
         <v>466.3423679895105</v>
       </c>
       <c r="P30" t="n">
-        <v>361.4736736930836</v>
+        <v>361.4736736930837</v>
       </c>
       <c r="Q30" t="n">
-        <v>197.0179094490585</v>
+        <v>197.0179094490586</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.27206605971716</v>
+        <v>60.2720660597172</v>
       </c>
       <c r="K31" t="n">
         <v>164.9196783176027</v>
@@ -36996,19 +36996,19 @@
         <v>240.63413181774</v>
       </c>
       <c r="M31" t="n">
-        <v>260.1947537368992</v>
+        <v>260.1947537368993</v>
       </c>
       <c r="N31" t="n">
-        <v>259.7061936582504</v>
+        <v>259.7061936582505</v>
       </c>
       <c r="O31" t="n">
-        <v>236.6570669461914</v>
+        <v>236.6570669461915</v>
       </c>
       <c r="P31" t="n">
         <v>195.7585958972032</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.80056201888229</v>
+        <v>84.80056201888233</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.7615562520201</v>
+        <v>221.76155625202</v>
       </c>
       <c r="K32" t="n">
         <v>414.9381746388402</v>
@@ -37075,7 +37075,7 @@
         <v>540.6432546847412</v>
       </c>
       <c r="M32" t="n">
-        <v>596.2592892456059</v>
+        <v>494.0141515821722</v>
       </c>
       <c r="N32" t="n">
         <v>582.7672694473947</v>
@@ -37084,10 +37084,10 @@
         <v>503.2178644190471</v>
       </c>
       <c r="P32" t="n">
-        <v>401.9562156087684</v>
+        <v>411.9838004295176</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.9199538038438</v>
+        <v>247.1375066465278</v>
       </c>
       <c r="R32" t="n">
         <v>47.14362387636223</v>
@@ -37157,16 +37157,16 @@
         <v>564.6712816188008</v>
       </c>
       <c r="N33" t="n">
-        <v>202.5001034771294</v>
+        <v>593.146655269258</v>
       </c>
       <c r="O33" t="n">
-        <v>466.3423679895105</v>
+        <v>272.7137256464405</v>
       </c>
       <c r="P33" t="n">
         <v>361.4736736930836</v>
       </c>
       <c r="Q33" t="n">
-        <v>197.0179094490585</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.2720660597173</v>
+        <v>60.27206605971716</v>
       </c>
       <c r="K34" t="n">
         <v>164.9196783176026</v>
@@ -37242,7 +37242,7 @@
         <v>236.6570669461914</v>
       </c>
       <c r="P34" t="n">
-        <v>195.7585958972031</v>
+        <v>195.7585958972032</v>
       </c>
       <c r="Q34" t="n">
         <v>84.80056201888229</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>119.5164185885863</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>106.9259191093545</v>
+        <v>312.6930369754065</v>
       </c>
       <c r="L35" t="n">
         <v>438.3981170213076</v>
@@ -37318,7 +37318,7 @@
         <v>480.522131783961</v>
       </c>
       <c r="O35" t="n">
-        <v>400.9727267556135</v>
+        <v>314.7220274781472</v>
       </c>
       <c r="P35" t="n">
         <v>309.7386627660839</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>88.73094479205832</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>279.4397811387528</v>
       </c>
       <c r="L36" t="n">
-        <v>433.5629640445859</v>
+        <v>315.6591411534824</v>
       </c>
       <c r="M36" t="n">
         <v>564.6712816188008</v>
@@ -37400,10 +37400,10 @@
         <v>466.3423679895105</v>
       </c>
       <c r="P36" t="n">
-        <v>361.4736736930836</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.81113879568287</v>
+        <v>197.0179094490585</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>68.66925452637722</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>312.6930369754065</v>
@@ -37555,13 +37555,13 @@
         <v>480.522131783961</v>
       </c>
       <c r="O38" t="n">
-        <v>400.9727267556135</v>
+        <v>314.7220274781477</v>
       </c>
       <c r="P38" t="n">
         <v>309.7386627660839</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>154.9199538038438</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>88.73094479205832</v>
       </c>
       <c r="K39" t="n">
         <v>279.4397811387528</v>
@@ -37631,7 +37631,7 @@
         <v>564.6712816188008</v>
       </c>
       <c r="N39" t="n">
-        <v>202.5001034771298</v>
+        <v>113.7691586850718</v>
       </c>
       <c r="O39" t="n">
         <v>466.3423679895105</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>68.66925452637722</v>
+        <v>119.5164185885863</v>
       </c>
       <c r="K41" t="n">
-        <v>312.6930369754065</v>
+        <v>106.9259191093542</v>
       </c>
       <c r="L41" t="n">
         <v>438.3981170213076</v>
@@ -37798,7 +37798,7 @@
         <v>309.7386627660839</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>154.9199538038438</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>88.73094479205832</v>
       </c>
       <c r="K42" t="n">
-        <v>279.4397811387528</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>433.5629640445859</v>
       </c>
       <c r="M42" t="n">
-        <v>174.0247298266726</v>
+        <v>564.6712816188008</v>
       </c>
       <c r="N42" t="n">
         <v>593.146655269258</v>
       </c>
       <c r="O42" t="n">
-        <v>466.3423679895105</v>
+        <v>266.4046525440762</v>
       </c>
       <c r="P42" t="n">
         <v>361.4736736930836</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>119.5164185885863</v>
       </c>
       <c r="K44" t="n">
-        <v>226.44233769794</v>
+        <v>312.6930369754065</v>
       </c>
       <c r="L44" t="n">
         <v>438.3981170213076</v>
@@ -38026,7 +38026,7 @@
         <v>494.0141515821722</v>
       </c>
       <c r="N44" t="n">
-        <v>480.522131783961</v>
+        <v>274.7550139179086</v>
       </c>
       <c r="O44" t="n">
         <v>400.9727267556135</v>
@@ -38096,13 +38096,13 @@
         <v>88.73094479205832</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>279.4397811387528</v>
       </c>
       <c r="L45" t="n">
         <v>433.5629640445859</v>
       </c>
       <c r="M45" t="n">
-        <v>564.6712816188008</v>
+        <v>85.29378503461463</v>
       </c>
       <c r="N45" t="n">
         <v>593.146655269258</v>
@@ -38111,7 +38111,7 @@
         <v>466.3423679895105</v>
       </c>
       <c r="P45" t="n">
-        <v>161.5359582476492</v>
+        <v>361.4736736930836</v>
       </c>
       <c r="Q45" t="n">
         <v>197.0179094490585</v>
